--- a/CS.xlsx
+++ b/CS.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugupta2\Desktop\Price List\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3A0CB-ABAD-4072-897A-586BB162F7CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Subject Wise" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Subject Wise'!$A$8:$I$751</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1675">
   <si>
     <t>Pearson India Education Services Pvt Ltd
 World Trade Tower, 15th Floor 
@@ -5052,15 +5047,18 @@
   <si>
     <t>Updated Price List for the month of March 2021</t>
   </si>
+  <si>
+    <t>Hello World</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6323,10 +6321,10 @@
     <cellStyle name="Accent5" xfId="33" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="6" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Bad1" xfId="51" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Bad1" xfId="51"/>
     <cellStyle name="Calculation" xfId="10" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="12" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Comma 2" xfId="52"/>
     <cellStyle name="Explanatory Text" xfId="15" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="5" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
@@ -6337,20 +6335,20 @@
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Normal 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Normal 4" xfId="44" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Normal 5" xfId="45" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Normal 6" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Normal 7" xfId="54" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Normal_Vikram and Vishal files from editor" xfId="42" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 2" xfId="41"/>
+    <cellStyle name="Normal 3" xfId="53"/>
+    <cellStyle name="Normal 4" xfId="44"/>
+    <cellStyle name="Normal 5" xfId="45"/>
+    <cellStyle name="Normal 6" xfId="43"/>
+    <cellStyle name="Normal 7" xfId="54"/>
+    <cellStyle name="Normal_Vikram and Vishal files from editor" xfId="42"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Optional" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Optional" xfId="50"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Required" xfId="48" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Required 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Style 1" xfId="46" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Title 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Required" xfId="48"/>
+    <cellStyle name="Required 2" xfId="49"/>
+    <cellStyle name="Style 1" xfId="46"/>
+    <cellStyle name="Title 2" xfId="47"/>
     <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="13" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -6622,35 +6620,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I751"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" style="168" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="168" customWidth="1"/>
-    <col min="3" max="3" width="53.7265625" style="168" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" style="187" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="169" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="170" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1796875" style="168" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" style="171" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" style="171" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="15.21875" style="168" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="168" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" style="168" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="187" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="169" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" style="170" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.21875" style="168" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="171" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="195" t="s">
         <v>1673</v>
       </c>
@@ -6663,7 +6661,7 @@
       <c r="H1" s="195"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="A2" s="193" t="s">
         <v>0</v>
       </c>
@@ -6676,7 +6674,7 @@
       <c r="H2" s="193"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" s="193"/>
       <c r="B3" s="193"/>
       <c r="C3" s="193"/>
@@ -6687,7 +6685,7 @@
       <c r="H3" s="193"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="193"/>
       <c r="B4" s="193"/>
       <c r="C4" s="193"/>
@@ -6698,7 +6696,7 @@
       <c r="H4" s="193"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" s="193"/>
       <c r="B5" s="193"/>
       <c r="C5" s="193"/>
@@ -6709,7 +6707,7 @@
       <c r="H5" s="193"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="142"/>
       <c r="B6" s="142"/>
       <c r="C6" s="142" t="s">
@@ -6722,7 +6720,7 @@
       <c r="H6" s="144"/>
       <c r="I6" s="144"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="192" t="s">
         <v>1</v>
       </c>
@@ -6735,7 +6733,7 @@
       <c r="H7" s="145"/>
       <c r="I7" s="145"/>
     </row>
-    <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20.399999999999999">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
@@ -6764,7 +6762,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
@@ -6777,7 +6775,7 @@
       <c r="H9" s="148"/>
       <c r="I9" s="148"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" s="12" t="s">
         <v>6</v>
       </c>
@@ -6790,7 +6788,7 @@
       <c r="H10" s="149"/>
       <c r="I10" s="149"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6801,7 @@
       <c r="H11" s="150"/>
       <c r="I11" s="150"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
         <v>8</v>
       </c>
@@ -6826,7 +6824,7 @@
       </c>
       <c r="I12" s="146"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="22" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="26" t="s">
         <v>14</v>
       </c>
@@ -6874,7 +6872,7 @@
       </c>
       <c r="I14" s="146"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="27" t="s">
         <v>19</v>
       </c>
@@ -6897,7 +6895,7 @@
       </c>
       <c r="I15" s="146"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" s="27" t="s">
         <v>22</v>
       </c>
@@ -6920,7 +6918,7 @@
       </c>
       <c r="I16" s="146"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" s="14" t="s">
         <v>25</v>
       </c>
@@ -6933,7 +6931,7 @@
       <c r="H17" s="151"/>
       <c r="I17" s="151"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" s="19" t="s">
         <v>26</v>
       </c>
@@ -6946,7 +6944,7 @@
       <c r="H18" s="152"/>
       <c r="I18" s="152"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" s="22" t="s">
         <v>27</v>
       </c>
@@ -6971,7 +6969,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9">
       <c r="A20" s="22" t="s">
         <v>30</v>
       </c>
@@ -6996,7 +6994,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" s="22" t="s">
         <v>33</v>
       </c>
@@ -7021,7 +7019,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9">
       <c r="A22" s="33" t="s">
         <v>1626</v>
       </c>
@@ -7046,7 +7044,7 @@
       </c>
       <c r="I22" s="147"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9">
       <c r="A23" s="22" t="s">
         <v>36</v>
       </c>
@@ -7069,7 +7067,7 @@
       </c>
       <c r="I23" s="146"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9">
       <c r="A24" s="22" t="s">
         <v>39</v>
       </c>
@@ -7092,7 +7090,7 @@
       </c>
       <c r="I24" s="146"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9">
       <c r="A25" s="22" t="s">
         <v>42</v>
       </c>
@@ -7117,7 +7115,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9">
       <c r="A26" s="22" t="s">
         <v>45</v>
       </c>
@@ -7142,7 +7140,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9">
       <c r="A27" s="100" t="s">
         <v>1524</v>
       </c>
@@ -7165,7 +7163,7 @@
       </c>
       <c r="I27" s="146"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9">
       <c r="A28" s="111" t="s">
         <v>1549</v>
       </c>
@@ -7178,7 +7176,7 @@
       <c r="H28" s="157"/>
       <c r="I28" s="157"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9">
       <c r="A29" s="101" t="s">
         <v>1550</v>
       </c>
@@ -7203,7 +7201,7 @@
       </c>
       <c r="I29" s="147"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9">
       <c r="A30" s="19" t="s">
         <v>48</v>
       </c>
@@ -7216,7 +7214,7 @@
       <c r="H30" s="152"/>
       <c r="I30" s="152"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9">
       <c r="A31" s="22" t="s">
         <v>49</v>
       </c>
@@ -7239,7 +7237,7 @@
       </c>
       <c r="I31" s="146"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9">
       <c r="A32" s="19" t="s">
         <v>1483</v>
       </c>
@@ -7252,7 +7250,7 @@
       <c r="H32" s="152"/>
       <c r="I32" s="152"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9">
       <c r="A33" s="22" t="s">
         <v>1472</v>
       </c>
@@ -7275,7 +7273,7 @@
       </c>
       <c r="I33" s="146"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9">
       <c r="A34" s="33" t="s">
         <v>1541</v>
       </c>
@@ -7300,7 +7298,7 @@
       </c>
       <c r="I34" s="147"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9">
       <c r="A35" s="101" t="s">
         <v>1556</v>
       </c>
@@ -7325,7 +7323,7 @@
       </c>
       <c r="I35" s="147"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9">
       <c r="A36" s="19" t="s">
         <v>52</v>
       </c>
@@ -7338,7 +7336,7 @@
       <c r="H36" s="152"/>
       <c r="I36" s="152"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9">
       <c r="A37" s="22" t="s">
         <v>53</v>
       </c>
@@ -7363,7 +7361,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9">
       <c r="A38" s="19" t="s">
         <v>56</v>
       </c>
@@ -7376,7 +7374,7 @@
       <c r="H38" s="152"/>
       <c r="I38" s="152"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9">
       <c r="A39" s="22" t="s">
         <v>57</v>
       </c>
@@ -7401,7 +7399,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9">
       <c r="A40" s="101" t="s">
         <v>1541</v>
       </c>
@@ -7426,7 +7424,7 @@
       </c>
       <c r="I40" s="147"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9">
       <c r="A41" s="100" t="s">
         <v>1524</v>
       </c>
@@ -7449,7 +7447,7 @@
       </c>
       <c r="I41" s="146"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9">
       <c r="A42" s="14" t="s">
         <v>60</v>
       </c>
@@ -7462,7 +7460,7 @@
       <c r="H42" s="151"/>
       <c r="I42" s="151"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9">
       <c r="A43" s="19" t="s">
         <v>61</v>
       </c>
@@ -7475,7 +7473,7 @@
       <c r="H43" s="152"/>
       <c r="I43" s="152"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9">
       <c r="A44" s="22" t="s">
         <v>62</v>
       </c>
@@ -7498,7 +7496,7 @@
       </c>
       <c r="I44" s="146"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9">
       <c r="A45" s="22" t="s">
         <v>65</v>
       </c>
@@ -7523,7 +7521,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9">
       <c r="A46" s="22" t="s">
         <v>68</v>
       </c>
@@ -7548,7 +7546,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9">
       <c r="A47" s="22" t="s">
         <v>70</v>
       </c>
@@ -7571,7 +7569,7 @@
       </c>
       <c r="I47" s="146"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9">
       <c r="A48" s="22" t="s">
         <v>73</v>
       </c>
@@ -7594,7 +7592,7 @@
       </c>
       <c r="I48" s="146"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9">
       <c r="A49" s="22" t="s">
         <v>76</v>
       </c>
@@ -7619,7 +7617,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9">
       <c r="A50" s="22" t="s">
         <v>79</v>
       </c>
@@ -7644,7 +7642,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9">
       <c r="A51" s="19" t="s">
         <v>83</v>
       </c>
@@ -7657,7 +7655,7 @@
       <c r="H51" s="152"/>
       <c r="I51" s="152"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9">
       <c r="A52" s="22" t="s">
         <v>84</v>
       </c>
@@ -7680,7 +7678,7 @@
       </c>
       <c r="I52" s="146"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9">
       <c r="A53" s="22" t="s">
         <v>86</v>
       </c>
@@ -7705,7 +7703,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9">
       <c r="A54" s="22" t="s">
         <v>88</v>
       </c>
@@ -7728,7 +7726,7 @@
       </c>
       <c r="I54" s="146"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9">
       <c r="A55" s="19" t="s">
         <v>91</v>
       </c>
@@ -7741,7 +7739,7 @@
       <c r="H55" s="152"/>
       <c r="I55" s="152"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9">
       <c r="A56" s="22" t="s">
         <v>92</v>
       </c>
@@ -7766,7 +7764,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9">
       <c r="A57" s="22" t="s">
         <v>96</v>
       </c>
@@ -7791,7 +7789,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9">
       <c r="A58" s="22" t="s">
         <v>1511</v>
       </c>
@@ -7814,7 +7812,7 @@
       </c>
       <c r="I58" s="146"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9">
       <c r="A59" s="22" t="s">
         <v>1500</v>
       </c>
@@ -7837,7 +7835,7 @@
       </c>
       <c r="I59" s="146"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9">
       <c r="A60" s="26" t="s">
         <v>99</v>
       </c>
@@ -7862,7 +7860,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9">
       <c r="A61" s="22" t="s">
         <v>103</v>
       </c>
@@ -7887,7 +7885,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9">
       <c r="A62" s="19" t="s">
         <v>107</v>
       </c>
@@ -7900,7 +7898,7 @@
       <c r="H62" s="152"/>
       <c r="I62" s="152"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9">
       <c r="A63" s="22" t="s">
         <v>108</v>
       </c>
@@ -7925,7 +7923,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9">
       <c r="A64" s="19" t="s">
         <v>111</v>
       </c>
@@ -7938,7 +7936,7 @@
       <c r="H64" s="152"/>
       <c r="I64" s="152"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9">
       <c r="A65" s="22" t="s">
         <v>112</v>
       </c>
@@ -7963,7 +7961,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9">
       <c r="A66" s="14" t="s">
         <v>115</v>
       </c>
@@ -7976,7 +7974,7 @@
       <c r="H66" s="151"/>
       <c r="I66" s="151"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9">
       <c r="A67" s="19" t="s">
         <v>116</v>
       </c>
@@ -7989,7 +7987,7 @@
       <c r="H67" s="152"/>
       <c r="I67" s="152"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9">
       <c r="A68" s="37" t="s">
         <v>117</v>
       </c>
@@ -8012,7 +8010,7 @@
       </c>
       <c r="I68" s="146"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9">
       <c r="A69" s="22" t="s">
         <v>120</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9">
       <c r="A70" s="22" t="s">
         <v>123</v>
       </c>
@@ -8062,7 +8060,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9">
       <c r="A71" s="19" t="s">
         <v>126</v>
       </c>
@@ -8075,7 +8073,7 @@
       <c r="H71" s="152"/>
       <c r="I71" s="152"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9">
       <c r="A72" s="22" t="s">
         <v>127</v>
       </c>
@@ -8098,7 +8096,7 @@
       </c>
       <c r="I72" s="146"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9">
       <c r="A73" s="22" t="s">
         <v>130</v>
       </c>
@@ -8123,7 +8121,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9">
       <c r="A74" s="22" t="s">
         <v>133</v>
       </c>
@@ -8148,7 +8146,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9">
       <c r="A75" s="22" t="s">
         <v>135</v>
       </c>
@@ -8171,7 +8169,7 @@
       </c>
       <c r="I75" s="146"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9">
       <c r="A76" s="22" t="s">
         <v>138</v>
       </c>
@@ -8194,7 +8192,7 @@
       </c>
       <c r="I76" s="146"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9">
       <c r="A77" s="22" t="s">
         <v>141</v>
       </c>
@@ -8217,7 +8215,7 @@
       </c>
       <c r="I77" s="146"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9">
       <c r="A78" s="22" t="s">
         <v>144</v>
       </c>
@@ -8242,7 +8240,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9">
       <c r="A79" s="19" t="s">
         <v>147</v>
       </c>
@@ -8255,7 +8253,7 @@
       <c r="H79" s="152"/>
       <c r="I79" s="152"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9">
       <c r="A80" s="22" t="s">
         <v>148</v>
       </c>
@@ -8278,7 +8276,7 @@
       </c>
       <c r="I80" s="146"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9">
       <c r="A81" s="22" t="s">
         <v>151</v>
       </c>
@@ -8303,7 +8301,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9">
       <c r="A82" s="19" t="s">
         <v>154</v>
       </c>
@@ -8316,7 +8314,7 @@
       <c r="H82" s="152"/>
       <c r="I82" s="152"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9">
       <c r="A83" s="22" t="s">
         <v>155</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9">
       <c r="A84" s="22" t="s">
         <v>158</v>
       </c>
@@ -8364,7 +8362,7 @@
       </c>
       <c r="I84" s="146"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9">
       <c r="A85" s="14" t="s">
         <v>161</v>
       </c>
@@ -8377,7 +8375,7 @@
       <c r="H85" s="151"/>
       <c r="I85" s="151"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9">
       <c r="A86" s="19" t="s">
         <v>162</v>
       </c>
@@ -8390,7 +8388,7 @@
       <c r="H86" s="152"/>
       <c r="I86" s="152"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9">
       <c r="A87" s="22" t="s">
         <v>163</v>
       </c>
@@ -8413,7 +8411,7 @@
       </c>
       <c r="I87" s="146"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9">
       <c r="A88" s="22" t="s">
         <v>166</v>
       </c>
@@ -8436,7 +8434,7 @@
       </c>
       <c r="I88" s="146"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9">
       <c r="A89" s="22" t="s">
         <v>169</v>
       </c>
@@ -8461,7 +8459,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9">
       <c r="A90" s="22" t="s">
         <v>172</v>
       </c>
@@ -8486,7 +8484,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9">
       <c r="A91" s="14" t="s">
         <v>175</v>
       </c>
@@ -8499,7 +8497,7 @@
       <c r="H91" s="151"/>
       <c r="I91" s="151"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9">
       <c r="A92" s="19" t="s">
         <v>176</v>
       </c>
@@ -8512,7 +8510,7 @@
       <c r="H92" s="152"/>
       <c r="I92" s="152"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9">
       <c r="A93" s="22" t="s">
         <v>177</v>
       </c>
@@ -8537,7 +8535,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9">
       <c r="A94" s="22" t="s">
         <v>180</v>
       </c>
@@ -8560,7 +8558,7 @@
       </c>
       <c r="I94" s="146"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9">
       <c r="A95" s="22" t="s">
         <v>183</v>
       </c>
@@ -8583,7 +8581,7 @@
       </c>
       <c r="I95" s="146"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9">
       <c r="A96" s="27" t="s">
         <v>186</v>
       </c>
@@ -8606,7 +8604,7 @@
       </c>
       <c r="I96" s="146"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9">
       <c r="A97" s="19" t="s">
         <v>189</v>
       </c>
@@ -8619,7 +8617,7 @@
       <c r="H97" s="152"/>
       <c r="I97" s="152"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9">
       <c r="A98" s="22" t="s">
         <v>1519</v>
       </c>
@@ -8642,7 +8640,7 @@
       </c>
       <c r="I98" s="146"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9">
       <c r="A99" s="22" t="s">
         <v>191</v>
       </c>
@@ -8665,7 +8663,7 @@
       </c>
       <c r="I99" s="146"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9">
       <c r="A100" s="22" t="s">
         <v>194</v>
       </c>
@@ -8688,7 +8686,7 @@
       </c>
       <c r="I100" s="146"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9">
       <c r="A101" s="22" t="s">
         <v>197</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9">
       <c r="A102" s="27" t="s">
         <v>200</v>
       </c>
@@ -8738,7 +8736,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9">
       <c r="A103" s="22" t="s">
         <v>202</v>
       </c>
@@ -8763,7 +8761,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9">
       <c r="A104" s="22" t="s">
         <v>205</v>
       </c>
@@ -8788,7 +8786,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9">
       <c r="A105" s="22" t="s">
         <v>208</v>
       </c>
@@ -8813,7 +8811,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="22" t="s">
         <v>211</v>
       </c>
@@ -8838,7 +8836,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9">
       <c r="A107" s="19" t="s">
         <v>214</v>
       </c>
@@ -8851,7 +8849,7 @@
       <c r="H107" s="152"/>
       <c r="I107" s="152"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9">
       <c r="A108" s="22" t="s">
         <v>215</v>
       </c>
@@ -8876,7 +8874,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9">
       <c r="A109" s="19" t="s">
         <v>218</v>
       </c>
@@ -8889,7 +8887,7 @@
       <c r="H109" s="152"/>
       <c r="I109" s="152"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9">
       <c r="A110" s="22" t="s">
         <v>219</v>
       </c>
@@ -8914,7 +8912,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9">
       <c r="A111" s="19" t="s">
         <v>223</v>
       </c>
@@ -8927,7 +8925,7 @@
       <c r="H111" s="152"/>
       <c r="I111" s="152"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9">
       <c r="A112" s="22" t="s">
         <v>224</v>
       </c>
@@ -8952,7 +8950,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9">
       <c r="A113" s="14" t="s">
         <v>227</v>
       </c>
@@ -8965,7 +8963,7 @@
       <c r="H113" s="151"/>
       <c r="I113" s="151"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9">
       <c r="A114" s="19" t="s">
         <v>228</v>
       </c>
@@ -8978,7 +8976,7 @@
       <c r="H114" s="152"/>
       <c r="I114" s="152"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9">
       <c r="A115" s="22" t="s">
         <v>229</v>
       </c>
@@ -9003,7 +9001,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9">
       <c r="A116" s="22" t="s">
         <v>232</v>
       </c>
@@ -9028,7 +9026,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9">
       <c r="A117" s="22" t="s">
         <v>235</v>
       </c>
@@ -9051,7 +9049,7 @@
       </c>
       <c r="I117" s="146"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9">
       <c r="A118" s="22" t="s">
         <v>1466</v>
       </c>
@@ -9072,7 +9070,7 @@
       <c r="H118" s="146"/>
       <c r="I118" s="146"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9">
       <c r="A119" s="22" t="s">
         <v>238</v>
       </c>
@@ -9095,7 +9093,7 @@
       </c>
       <c r="I119" s="146"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9">
       <c r="A120" s="22" t="s">
         <v>240</v>
       </c>
@@ -9118,7 +9116,7 @@
       </c>
       <c r="I120" s="146"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9">
       <c r="A121" s="19" t="s">
         <v>242</v>
       </c>
@@ -9131,7 +9129,7 @@
       <c r="H121" s="152"/>
       <c r="I121" s="152"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9">
       <c r="A122" s="22" t="s">
         <v>243</v>
       </c>
@@ -9154,7 +9152,7 @@
       </c>
       <c r="I122" s="146"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9">
       <c r="A123" s="22" t="s">
         <v>246</v>
       </c>
@@ -9179,7 +9177,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9">
       <c r="A124" s="14" t="s">
         <v>249</v>
       </c>
@@ -9192,7 +9190,7 @@
       <c r="H124" s="151"/>
       <c r="I124" s="151"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9">
       <c r="A125" s="19" t="s">
         <v>250</v>
       </c>
@@ -9205,7 +9203,7 @@
       <c r="H125" s="152"/>
       <c r="I125" s="152"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9">
       <c r="A126" s="22" t="s">
         <v>251</v>
       </c>
@@ -9230,7 +9228,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9">
       <c r="A127" s="22" t="s">
         <v>254</v>
       </c>
@@ -9253,7 +9251,7 @@
       </c>
       <c r="I127" s="146"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9">
       <c r="A128" s="22" t="s">
         <v>257</v>
       </c>
@@ -9276,7 +9274,7 @@
       </c>
       <c r="I128" s="146"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9">
       <c r="A129" s="22" t="s">
         <v>1496</v>
       </c>
@@ -9299,7 +9297,7 @@
       </c>
       <c r="I129" s="146"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9">
       <c r="A130" s="40" t="s">
         <v>259</v>
       </c>
@@ -9322,7 +9320,7 @@
       </c>
       <c r="I130" s="146"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9">
       <c r="A131" s="22" t="s">
         <v>262</v>
       </c>
@@ -9347,7 +9345,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9">
       <c r="A132" s="22" t="s">
         <v>1327</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9">
       <c r="A133" s="19" t="s">
         <v>264</v>
       </c>
@@ -9385,7 +9383,7 @@
       <c r="H133" s="152"/>
       <c r="I133" s="152"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9">
       <c r="A134" s="22" t="s">
         <v>265</v>
       </c>
@@ -9408,7 +9406,7 @@
       </c>
       <c r="I134" s="146"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9">
       <c r="A135" s="22" t="s">
         <v>268</v>
       </c>
@@ -9431,7 +9429,7 @@
       </c>
       <c r="I135" s="146"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9">
       <c r="A136" s="19" t="s">
         <v>249</v>
       </c>
@@ -9444,7 +9442,7 @@
       <c r="H136" s="152"/>
       <c r="I136" s="152"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9">
       <c r="A137" s="22" t="s">
         <v>271</v>
       </c>
@@ -9469,7 +9467,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9">
       <c r="A138" s="22" t="s">
         <v>274</v>
       </c>
@@ -9492,7 +9490,7 @@
       </c>
       <c r="I138" s="146"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9">
       <c r="A139" s="22" t="s">
         <v>277</v>
       </c>
@@ -9517,7 +9515,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9">
       <c r="A140" s="19" t="s">
         <v>280</v>
       </c>
@@ -9530,7 +9528,7 @@
       <c r="H140" s="152"/>
       <c r="I140" s="152"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9">
       <c r="A141" s="22" t="s">
         <v>281</v>
       </c>
@@ -9555,7 +9553,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9">
       <c r="A142" s="14" t="s">
         <v>284</v>
       </c>
@@ -9568,7 +9566,7 @@
       <c r="H142" s="151"/>
       <c r="I142" s="151"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9">
       <c r="A143" s="19" t="s">
         <v>285</v>
       </c>
@@ -9581,7 +9579,7 @@
       <c r="H143" s="152"/>
       <c r="I143" s="152"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9">
       <c r="A144" s="22" t="s">
         <v>286</v>
       </c>
@@ -9604,7 +9602,7 @@
       </c>
       <c r="I144" s="146"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9">
       <c r="A145" s="22" t="s">
         <v>289</v>
       </c>
@@ -9629,7 +9627,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9">
       <c r="A146" s="22" t="s">
         <v>292</v>
       </c>
@@ -9654,7 +9652,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9">
       <c r="A147" s="22" t="s">
         <v>1394</v>
       </c>
@@ -9677,7 +9675,7 @@
       </c>
       <c r="I147" s="146"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9">
       <c r="A148" s="22" t="s">
         <v>294</v>
       </c>
@@ -9702,7 +9700,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9">
       <c r="A149" s="22" t="s">
         <v>296</v>
       </c>
@@ -9725,7 +9723,7 @@
       </c>
       <c r="I149" s="146"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9">
       <c r="A150" s="22" t="s">
         <v>299</v>
       </c>
@@ -9750,7 +9748,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9">
       <c r="A151" s="22" t="s">
         <v>301</v>
       </c>
@@ -9775,7 +9773,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9">
       <c r="A152" s="22" t="s">
         <v>303</v>
       </c>
@@ -9800,7 +9798,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9">
       <c r="A153" s="22" t="s">
         <v>1346</v>
       </c>
@@ -9823,7 +9821,7 @@
       </c>
       <c r="I153" s="146"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9">
       <c r="A154" s="22" t="s">
         <v>305</v>
       </c>
@@ -9846,7 +9844,7 @@
       </c>
       <c r="I154" s="146"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9">
       <c r="A155" s="19" t="s">
         <v>308</v>
       </c>
@@ -9859,7 +9857,7 @@
       <c r="H155" s="152"/>
       <c r="I155" s="152"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9">
       <c r="A156" s="22" t="s">
         <v>309</v>
       </c>
@@ -9882,7 +9880,7 @@
       </c>
       <c r="I156" s="146"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9">
       <c r="A157" s="19" t="s">
         <v>312</v>
       </c>
@@ -9895,7 +9893,7 @@
       <c r="H157" s="152"/>
       <c r="I157" s="152"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9">
       <c r="A158" s="22" t="s">
         <v>313</v>
       </c>
@@ -9920,7 +9918,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9">
       <c r="A159" s="22" t="s">
         <v>316</v>
       </c>
@@ -9945,7 +9943,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9">
       <c r="A160" s="22" t="s">
         <v>319</v>
       </c>
@@ -9970,7 +9968,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9">
       <c r="A161" s="22" t="s">
         <v>321</v>
       </c>
@@ -9995,7 +9993,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9">
       <c r="A162" s="27" t="s">
         <v>324</v>
       </c>
@@ -10020,7 +10018,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9">
       <c r="A163" s="22" t="s">
         <v>1380</v>
       </c>
@@ -10043,7 +10041,7 @@
       </c>
       <c r="I163" s="146"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9">
       <c r="A164" s="22" t="s">
         <v>328</v>
       </c>
@@ -10068,7 +10066,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9">
       <c r="A165" s="22" t="s">
         <v>1378</v>
       </c>
@@ -10091,7 +10089,7 @@
       </c>
       <c r="I165" s="146"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9">
       <c r="A166" s="22" t="s">
         <v>331</v>
       </c>
@@ -10114,7 +10112,7 @@
       </c>
       <c r="I166" s="146"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9">
       <c r="A167" s="22" t="s">
         <v>1521</v>
       </c>
@@ -10137,7 +10135,7 @@
       </c>
       <c r="I167" s="146"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9">
       <c r="A168" s="22" t="s">
         <v>333</v>
       </c>
@@ -10162,7 +10160,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9">
       <c r="A169" s="19" t="s">
         <v>336</v>
       </c>
@@ -10175,7 +10173,7 @@
       <c r="H169" s="152"/>
       <c r="I169" s="152"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9">
       <c r="A170" s="22" t="s">
         <v>337</v>
       </c>
@@ -10198,7 +10196,7 @@
       </c>
       <c r="I170" s="146"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9">
       <c r="A171" s="22" t="s">
         <v>340</v>
       </c>
@@ -10223,7 +10221,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9">
       <c r="A172" s="22" t="s">
         <v>343</v>
       </c>
@@ -10246,7 +10244,7 @@
       </c>
       <c r="I172" s="146"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9">
       <c r="A173" s="22" t="s">
         <v>346</v>
       </c>
@@ -10269,7 +10267,7 @@
       </c>
       <c r="I173" s="146"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9">
       <c r="A174" s="22" t="s">
         <v>349</v>
       </c>
@@ -10294,7 +10292,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9">
       <c r="A175" s="22" t="s">
         <v>352</v>
       </c>
@@ -10319,7 +10317,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9">
       <c r="A176" s="19" t="s">
         <v>355</v>
       </c>
@@ -10332,7 +10330,7 @@
       <c r="H176" s="152"/>
       <c r="I176" s="152"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9">
       <c r="A177" s="22" t="s">
         <v>356</v>
       </c>
@@ -10357,7 +10355,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9">
       <c r="A178" s="14" t="s">
         <v>359</v>
       </c>
@@ -10370,7 +10368,7 @@
       <c r="H178" s="151"/>
       <c r="I178" s="151"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9">
       <c r="A179" s="19" t="s">
         <v>360</v>
       </c>
@@ -10383,7 +10381,7 @@
       <c r="H179" s="152"/>
       <c r="I179" s="152"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9">
       <c r="A180" s="22" t="s">
         <v>361</v>
       </c>
@@ -10408,7 +10406,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9">
       <c r="A181" s="22" t="s">
         <v>364</v>
       </c>
@@ -10431,7 +10429,7 @@
       </c>
       <c r="I181" s="146"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9">
       <c r="A182" s="22" t="s">
         <v>366</v>
       </c>
@@ -10454,7 +10452,7 @@
       </c>
       <c r="I182" s="146"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9">
       <c r="A183" s="19" t="s">
         <v>359</v>
       </c>
@@ -10467,7 +10465,7 @@
       <c r="H183" s="152"/>
       <c r="I183" s="152"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9">
       <c r="A184" s="22" t="s">
         <v>369</v>
       </c>
@@ -10490,7 +10488,7 @@
       </c>
       <c r="I184" s="146"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9">
       <c r="A185" s="22" t="s">
         <v>371</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9">
       <c r="A186" s="22" t="s">
         <v>1391</v>
       </c>
@@ -10538,7 +10536,7 @@
       </c>
       <c r="I186" s="146"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9">
       <c r="A187" s="22" t="s">
         <v>374</v>
       </c>
@@ -10561,7 +10559,7 @@
       </c>
       <c r="I187" s="146"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9">
       <c r="A188" s="22" t="s">
         <v>377</v>
       </c>
@@ -10584,7 +10582,7 @@
       </c>
       <c r="I188" s="146"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9">
       <c r="A189" s="19" t="s">
         <v>380</v>
       </c>
@@ -10597,7 +10595,7 @@
       <c r="H189" s="152"/>
       <c r="I189" s="152"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9">
       <c r="A190" s="22" t="s">
         <v>381</v>
       </c>
@@ -10620,7 +10618,7 @@
       </c>
       <c r="I190" s="146"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9">
       <c r="A191" s="22" t="s">
         <v>384</v>
       </c>
@@ -10645,7 +10643,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9">
       <c r="A192" s="22" t="s">
         <v>387</v>
       </c>
@@ -10670,7 +10668,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9">
       <c r="A193" s="14" t="s">
         <v>390</v>
       </c>
@@ -10683,7 +10681,7 @@
       <c r="H193" s="151"/>
       <c r="I193" s="151"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9">
       <c r="A194" s="19" t="s">
         <v>391</v>
       </c>
@@ -10696,7 +10694,7 @@
       <c r="H194" s="152"/>
       <c r="I194" s="152"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9">
       <c r="A195" s="40" t="s">
         <v>1458</v>
       </c>
@@ -10719,7 +10717,7 @@
       </c>
       <c r="I195" s="146"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9">
       <c r="A196" s="22" t="s">
         <v>393</v>
       </c>
@@ -10742,7 +10740,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9">
       <c r="A197" s="22" t="s">
         <v>396</v>
       </c>
@@ -10767,7 +10765,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9">
       <c r="A198" s="22" t="s">
         <v>399</v>
       </c>
@@ -10792,7 +10790,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9">
       <c r="A199" s="26" t="s">
         <v>402</v>
       </c>
@@ -10815,7 +10813,7 @@
       </c>
       <c r="I199" s="146"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9">
       <c r="A200" s="22" t="s">
         <v>404</v>
       </c>
@@ -10840,7 +10838,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9">
       <c r="A201" s="22" t="s">
         <v>407</v>
       </c>
@@ -10863,7 +10861,7 @@
       </c>
       <c r="I201" s="146"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9">
       <c r="A202" s="22" t="s">
         <v>410</v>
       </c>
@@ -10888,7 +10886,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9">
       <c r="A203" s="22" t="s">
         <v>413</v>
       </c>
@@ -10913,7 +10911,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9">
       <c r="A204" s="19" t="s">
         <v>416</v>
       </c>
@@ -10926,7 +10924,7 @@
       <c r="H204" s="152"/>
       <c r="I204" s="152"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9">
       <c r="A205" s="22" t="s">
         <v>418</v>
       </c>
@@ -10949,7 +10947,7 @@
       </c>
       <c r="I205" s="146"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9">
       <c r="A206" s="22" t="s">
         <v>420</v>
       </c>
@@ -10974,7 +10972,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9">
       <c r="A207" s="22" t="s">
         <v>423</v>
       </c>
@@ -10999,7 +10997,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9">
       <c r="A208" s="22" t="s">
         <v>426</v>
       </c>
@@ -11022,7 +11020,7 @@
       </c>
       <c r="I208" s="146"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9">
       <c r="A209" s="22" t="s">
         <v>428</v>
       </c>
@@ -11047,7 +11045,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9">
       <c r="A210" s="22" t="s">
         <v>1348</v>
       </c>
@@ -11070,7 +11068,7 @@
       </c>
       <c r="I210" s="146"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9">
       <c r="A211" s="26" t="s">
         <v>432</v>
       </c>
@@ -11095,7 +11093,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9">
       <c r="A212" s="22" t="s">
         <v>435</v>
       </c>
@@ -11120,7 +11118,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9">
       <c r="A213" s="19" t="s">
         <v>438</v>
       </c>
@@ -11133,7 +11131,7 @@
       <c r="H213" s="152"/>
       <c r="I213" s="152"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9">
       <c r="A214" s="22" t="s">
         <v>439</v>
       </c>
@@ -11158,7 +11156,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9">
       <c r="A215" s="19" t="s">
         <v>441</v>
       </c>
@@ -11171,7 +11169,7 @@
       <c r="H215" s="152"/>
       <c r="I215" s="152"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9">
       <c r="A216" s="22" t="s">
         <v>442</v>
       </c>
@@ -11194,7 +11192,7 @@
       </c>
       <c r="I216" s="146"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9">
       <c r="A217" s="22" t="s">
         <v>444</v>
       </c>
@@ -11219,7 +11217,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9">
       <c r="A218" s="22" t="s">
         <v>446</v>
       </c>
@@ -11244,7 +11242,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9">
       <c r="A219" s="22" t="s">
         <v>449</v>
       </c>
@@ -11267,7 +11265,7 @@
       </c>
       <c r="I219" s="146"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9">
       <c r="A220" s="26" t="s">
         <v>452</v>
       </c>
@@ -11292,7 +11290,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9">
       <c r="A221" s="22" t="s">
         <v>1468</v>
       </c>
@@ -11315,7 +11313,7 @@
       </c>
       <c r="I221" s="146"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9">
       <c r="A222" s="22" t="s">
         <v>455</v>
       </c>
@@ -11338,7 +11336,7 @@
       </c>
       <c r="I222" s="146"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9">
       <c r="A223" s="19" t="s">
         <v>458</v>
       </c>
@@ -11351,7 +11349,7 @@
       <c r="H223" s="152"/>
       <c r="I223" s="152"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9">
       <c r="A224" s="22" t="s">
         <v>459</v>
       </c>
@@ -11376,7 +11374,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9">
       <c r="A225" s="22" t="s">
         <v>462</v>
       </c>
@@ -11399,7 +11397,7 @@
       </c>
       <c r="I225" s="146"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9">
       <c r="A226" s="19" t="s">
         <v>464</v>
       </c>
@@ -11412,7 +11410,7 @@
       <c r="H226" s="152"/>
       <c r="I226" s="152"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9">
       <c r="A227" s="22" t="s">
         <v>465</v>
       </c>
@@ -11437,7 +11435,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9">
       <c r="A228" s="19" t="s">
         <v>468</v>
       </c>
@@ -11450,7 +11448,7 @@
       <c r="H228" s="152"/>
       <c r="I228" s="152"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9">
       <c r="A229" s="22" t="s">
         <v>469</v>
       </c>
@@ -11475,7 +11473,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9">
       <c r="A230" s="19" t="s">
         <v>472</v>
       </c>
@@ -11488,7 +11486,7 @@
       <c r="H230" s="152"/>
       <c r="I230" s="152"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9">
       <c r="A231" s="22" t="s">
         <v>473</v>
       </c>
@@ -11513,7 +11511,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9">
       <c r="A232" s="22" t="s">
         <v>1460</v>
       </c>
@@ -11536,7 +11534,7 @@
       </c>
       <c r="I232" s="146"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9">
       <c r="A233" s="33" t="s">
         <v>1559</v>
       </c>
@@ -11561,7 +11559,7 @@
       </c>
       <c r="I233" s="147"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9">
       <c r="A234" s="33" t="s">
         <v>1560</v>
       </c>
@@ -11586,7 +11584,7 @@
       </c>
       <c r="I234" s="147"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9">
       <c r="A235" s="22" t="s">
         <v>1444</v>
       </c>
@@ -11609,7 +11607,7 @@
       </c>
       <c r="I235" s="146"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9">
       <c r="A236" s="22" t="s">
         <v>1475</v>
       </c>
@@ -11632,7 +11630,7 @@
       </c>
       <c r="I236" s="146"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9">
       <c r="A237" s="22" t="s">
         <v>479</v>
       </c>
@@ -11657,7 +11655,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9">
       <c r="A238" s="22" t="s">
         <v>482</v>
       </c>
@@ -11682,7 +11680,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9">
       <c r="A239" s="19" t="s">
         <v>390</v>
       </c>
@@ -11695,7 +11693,7 @@
       <c r="H239" s="152"/>
       <c r="I239" s="152"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9">
       <c r="A240" s="22" t="s">
         <v>484</v>
       </c>
@@ -11720,7 +11718,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9">
       <c r="A241" s="33" t="s">
         <v>1625</v>
       </c>
@@ -11745,7 +11743,7 @@
       </c>
       <c r="I241" s="147"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9">
       <c r="A242" s="22" t="s">
         <v>487</v>
       </c>
@@ -11770,7 +11768,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9">
       <c r="A243" s="22" t="s">
         <v>490</v>
       </c>
@@ -11793,7 +11791,7 @@
       </c>
       <c r="I243" s="146"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9">
       <c r="A244" s="22" t="s">
         <v>492</v>
       </c>
@@ -11816,7 +11814,7 @@
       </c>
       <c r="I244" s="146"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9">
       <c r="A245" s="22" t="s">
         <v>1509</v>
       </c>
@@ -11839,7 +11837,7 @@
       </c>
       <c r="I245" s="146"/>
     </row>
-    <row r="246" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" s="2" customFormat="1">
       <c r="A246" s="22" t="s">
         <v>496</v>
       </c>
@@ -11862,7 +11860,7 @@
       </c>
       <c r="I246" s="146"/>
     </row>
-    <row r="247" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" s="2" customFormat="1">
       <c r="A247" s="22" t="s">
         <v>1339</v>
       </c>
@@ -11885,7 +11883,7 @@
       </c>
       <c r="I247" s="146"/>
     </row>
-    <row r="248" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" s="2" customFormat="1">
       <c r="A248" s="41" t="s">
         <v>1180</v>
       </c>
@@ -11908,7 +11906,7 @@
       </c>
       <c r="I248" s="146"/>
     </row>
-    <row r="249" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" s="2" customFormat="1">
       <c r="A249" s="41" t="s">
         <v>1183</v>
       </c>
@@ -11931,7 +11929,7 @@
       </c>
       <c r="I249" s="146"/>
     </row>
-    <row r="250" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" s="2" customFormat="1">
       <c r="A250" s="22" t="s">
         <v>1330</v>
       </c>
@@ -11954,7 +11952,7 @@
       </c>
       <c r="I250" s="146"/>
     </row>
-    <row r="251" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" s="2" customFormat="1">
       <c r="A251" s="22" t="s">
         <v>1544</v>
       </c>
@@ -11977,7 +11975,7 @@
       </c>
       <c r="I251" s="146"/>
     </row>
-    <row r="252" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" s="2" customFormat="1">
       <c r="A252" s="41" t="s">
         <v>1187</v>
       </c>
@@ -12000,7 +11998,7 @@
       </c>
       <c r="I252" s="146"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9">
       <c r="A253" s="22" t="s">
         <v>1190</v>
       </c>
@@ -12023,7 +12021,7 @@
       </c>
       <c r="I253" s="146"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9">
       <c r="A254" s="22" t="s">
         <v>1404</v>
       </c>
@@ -12046,7 +12044,7 @@
       </c>
       <c r="I254" s="146"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9">
       <c r="A255" s="19" t="s">
         <v>499</v>
       </c>
@@ -12059,7 +12057,7 @@
       <c r="H255" s="152"/>
       <c r="I255" s="152"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9">
       <c r="A256" s="22" t="s">
         <v>500</v>
       </c>
@@ -12082,7 +12080,7 @@
       </c>
       <c r="I256" s="146"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9">
       <c r="A257" s="22" t="s">
         <v>501</v>
       </c>
@@ -12107,7 +12105,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9">
       <c r="A258" s="19" t="s">
         <v>504</v>
       </c>
@@ -12120,7 +12118,7 @@
       <c r="H258" s="152"/>
       <c r="I258" s="152"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9">
       <c r="A259" s="22" t="s">
         <v>30</v>
       </c>
@@ -12145,7 +12143,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9">
       <c r="A260" s="22" t="s">
         <v>262</v>
       </c>
@@ -12170,7 +12168,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9">
       <c r="A261" s="22" t="s">
         <v>133</v>
       </c>
@@ -12195,7 +12193,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9">
       <c r="A262" s="22" t="s">
         <v>319</v>
       </c>
@@ -12220,7 +12218,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9">
       <c r="A263" s="22" t="s">
         <v>508</v>
       </c>
@@ -12245,7 +12243,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9">
       <c r="A264" s="22" t="s">
         <v>229</v>
       </c>
@@ -12270,7 +12268,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9">
       <c r="A265" s="22" t="s">
         <v>68</v>
       </c>
@@ -12295,7 +12293,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9">
       <c r="A266" s="22" t="s">
         <v>88</v>
       </c>
@@ -12318,7 +12316,7 @@
       </c>
       <c r="I266" s="146"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9">
       <c r="A267" s="22" t="s">
         <v>511</v>
       </c>
@@ -12343,7 +12341,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9">
       <c r="A268" s="19" t="s">
         <v>1634</v>
       </c>
@@ -12356,7 +12354,7 @@
       <c r="H268" s="19"/>
       <c r="I268" s="19"/>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9">
       <c r="A269" s="33" t="s">
         <v>1629</v>
       </c>
@@ -12381,7 +12379,7 @@
       </c>
       <c r="I269" s="147"/>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9">
       <c r="A270" s="14" t="s">
         <v>514</v>
       </c>
@@ -12394,7 +12392,7 @@
       <c r="H270" s="151"/>
       <c r="I270" s="151"/>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9">
       <c r="A271" s="19" t="s">
         <v>514</v>
       </c>
@@ -12407,7 +12405,7 @@
       <c r="H271" s="152"/>
       <c r="I271" s="152"/>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9">
       <c r="A272" s="22" t="s">
         <v>516</v>
       </c>
@@ -12430,7 +12428,7 @@
       </c>
       <c r="I272" s="146"/>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9">
       <c r="A273" s="22" t="s">
         <v>518</v>
       </c>
@@ -12453,7 +12451,7 @@
       </c>
       <c r="I273" s="146"/>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9">
       <c r="A274" s="33" t="s">
         <v>1635</v>
       </c>
@@ -12478,7 +12476,7 @@
       </c>
       <c r="I274" s="147"/>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9">
       <c r="A275" s="19" t="s">
         <v>521</v>
       </c>
@@ -12491,7 +12489,7 @@
       <c r="H275" s="152"/>
       <c r="I275" s="152"/>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9">
       <c r="A276" s="22" t="s">
         <v>522</v>
       </c>
@@ -12516,7 +12514,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9">
       <c r="A277" s="22" t="s">
         <v>525</v>
       </c>
@@ -12541,7 +12539,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9">
       <c r="A278" s="19" t="s">
         <v>527</v>
       </c>
@@ -12554,7 +12552,7 @@
       <c r="H278" s="152"/>
       <c r="I278" s="152"/>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9">
       <c r="A279" s="22" t="s">
         <v>528</v>
       </c>
@@ -12577,7 +12575,7 @@
       </c>
       <c r="I279" s="146"/>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9">
       <c r="A280" s="22" t="s">
         <v>530</v>
       </c>
@@ -12602,7 +12600,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9">
       <c r="A281" s="22" t="s">
         <v>533</v>
       </c>
@@ -12627,7 +12625,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9">
       <c r="A282" s="22" t="s">
         <v>536</v>
       </c>
@@ -12650,7 +12648,7 @@
       </c>
       <c r="I282" s="146"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9">
       <c r="A283" s="19" t="s">
         <v>539</v>
       </c>
@@ -12663,7 +12661,7 @@
       <c r="H283" s="152"/>
       <c r="I283" s="152"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9">
       <c r="A284" s="22" t="s">
         <v>540</v>
       </c>
@@ -12686,7 +12684,7 @@
       </c>
       <c r="I284" s="146"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9">
       <c r="A285" s="22" t="s">
         <v>543</v>
       </c>
@@ -12709,7 +12707,7 @@
       </c>
       <c r="I285" s="146"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9">
       <c r="A286" s="22" t="s">
         <v>546</v>
       </c>
@@ -12732,7 +12730,7 @@
       </c>
       <c r="I286" s="146"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9">
       <c r="A287" s="19" t="s">
         <v>548</v>
       </c>
@@ -12745,7 +12743,7 @@
       <c r="H287" s="152"/>
       <c r="I287" s="152"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9">
       <c r="A288" s="22" t="s">
         <v>549</v>
       </c>
@@ -12768,7 +12766,7 @@
       </c>
       <c r="I288" s="146"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9">
       <c r="A289" s="19" t="s">
         <v>552</v>
       </c>
@@ -12781,7 +12779,7 @@
       <c r="H289" s="152"/>
       <c r="I289" s="152"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9">
       <c r="A290" s="22" t="s">
         <v>553</v>
       </c>
@@ -12806,7 +12804,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9">
       <c r="A291" s="22" t="s">
         <v>556</v>
       </c>
@@ -12831,7 +12829,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9">
       <c r="A292" s="19" t="s">
         <v>558</v>
       </c>
@@ -12844,7 +12842,7 @@
       <c r="H292" s="152"/>
       <c r="I292" s="152"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9">
       <c r="A293" s="22" t="s">
         <v>559</v>
       </c>
@@ -12869,7 +12867,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9">
       <c r="A294" s="14" t="s">
         <v>558</v>
       </c>
@@ -12882,7 +12880,7 @@
       <c r="H294" s="151"/>
       <c r="I294" s="151"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9">
       <c r="A295" s="19" t="s">
         <v>562</v>
       </c>
@@ -12895,7 +12893,7 @@
       <c r="H295" s="152"/>
       <c r="I295" s="152"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9">
       <c r="A296" s="22" t="s">
         <v>563</v>
       </c>
@@ -12918,7 +12916,7 @@
       </c>
       <c r="I296" s="146"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9">
       <c r="A297" s="22" t="s">
         <v>1411</v>
       </c>
@@ -12941,7 +12939,7 @@
       </c>
       <c r="I297" s="146"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9">
       <c r="A298" s="22" t="s">
         <v>1529</v>
       </c>
@@ -12964,7 +12962,7 @@
       </c>
       <c r="I298" s="146"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9">
       <c r="A299" s="22" t="s">
         <v>565</v>
       </c>
@@ -12987,7 +12985,7 @@
       </c>
       <c r="I299" s="146"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9">
       <c r="A300" s="33" t="s">
         <v>1623</v>
       </c>
@@ -13012,7 +13010,7 @@
       </c>
       <c r="I300" s="147"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9">
       <c r="A301" s="22" t="s">
         <v>568</v>
       </c>
@@ -13037,7 +13035,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9">
       <c r="A302" s="19" t="s">
         <v>576</v>
       </c>
@@ -13050,7 +13048,7 @@
       <c r="H302" s="152"/>
       <c r="I302" s="152"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9">
       <c r="A303" s="22" t="s">
         <v>577</v>
       </c>
@@ -13073,7 +13071,7 @@
       </c>
       <c r="I303" s="146"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9">
       <c r="A304" s="40" t="s">
         <v>1407</v>
       </c>
@@ -13096,7 +13094,7 @@
       </c>
       <c r="I304" s="146"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9">
       <c r="A305" s="22" t="s">
         <v>508</v>
       </c>
@@ -13121,7 +13119,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9">
       <c r="A306" s="22" t="s">
         <v>582</v>
       </c>
@@ -13146,7 +13144,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9">
       <c r="A307" s="22" t="s">
         <v>585</v>
       </c>
@@ -13169,7 +13167,7 @@
       </c>
       <c r="I307" s="146"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9">
       <c r="A308" s="22" t="s">
         <v>588</v>
       </c>
@@ -13194,7 +13192,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9">
       <c r="A309" s="22" t="s">
         <v>1464</v>
       </c>
@@ -13217,7 +13215,7 @@
       </c>
       <c r="I309" s="146"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9">
       <c r="A310" s="22" t="s">
         <v>591</v>
       </c>
@@ -13240,7 +13238,7 @@
       </c>
       <c r="I310" s="146"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9">
       <c r="A311" s="27" t="s">
         <v>593</v>
       </c>
@@ -13265,7 +13263,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9">
       <c r="A312" s="22" t="s">
         <v>595</v>
       </c>
@@ -13288,7 +13286,7 @@
       </c>
       <c r="I312" s="146"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9">
       <c r="A313" s="22" t="s">
         <v>599</v>
       </c>
@@ -13311,7 +13309,7 @@
       </c>
       <c r="I313" s="146"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9">
       <c r="A314" s="22" t="s">
         <v>602</v>
       </c>
@@ -13334,7 +13332,7 @@
       </c>
       <c r="I314" s="146"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9">
       <c r="A315" s="22" t="s">
         <v>605</v>
       </c>
@@ -13359,7 +13357,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9">
       <c r="A316" s="19" t="s">
         <v>608</v>
       </c>
@@ -13372,7 +13370,7 @@
       <c r="H316" s="152"/>
       <c r="I316" s="152"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9">
       <c r="A317" s="22" t="s">
         <v>1462</v>
       </c>
@@ -13395,7 +13393,7 @@
       </c>
       <c r="I317" s="146"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9">
       <c r="A318" s="22" t="s">
         <v>610</v>
       </c>
@@ -13420,7 +13418,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9">
       <c r="A319" s="19" t="s">
         <v>612</v>
       </c>
@@ -13433,7 +13431,7 @@
       <c r="H319" s="152"/>
       <c r="I319" s="152"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9">
       <c r="A320" s="22" t="s">
         <v>613</v>
       </c>
@@ -13456,7 +13454,7 @@
       </c>
       <c r="I320" s="146"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9">
       <c r="A321" s="22" t="s">
         <v>615</v>
       </c>
@@ -13481,7 +13479,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9">
       <c r="A322" s="22" t="s">
         <v>618</v>
       </c>
@@ -13504,7 +13502,7 @@
       </c>
       <c r="I322" s="146"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9">
       <c r="A323" s="22" t="s">
         <v>620</v>
       </c>
@@ -13529,7 +13527,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9">
       <c r="A324" s="22" t="s">
         <v>622</v>
       </c>
@@ -13554,7 +13552,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9">
       <c r="A325" s="22" t="s">
         <v>625</v>
       </c>
@@ -13579,7 +13577,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9">
       <c r="A326" s="22" t="s">
         <v>628</v>
       </c>
@@ -13604,7 +13602,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9">
       <c r="A327" s="22" t="s">
         <v>631</v>
       </c>
@@ -13629,7 +13627,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9">
       <c r="A328" s="22" t="s">
         <v>633</v>
       </c>
@@ -13652,7 +13650,7 @@
       </c>
       <c r="I328" s="146"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9">
       <c r="A329" s="48" t="s">
         <v>636</v>
       </c>
@@ -13675,7 +13673,7 @@
       </c>
       <c r="I329" s="146"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9">
       <c r="A330" s="19" t="s">
         <v>639</v>
       </c>
@@ -13688,7 +13686,7 @@
       <c r="H330" s="152"/>
       <c r="I330" s="152"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9">
       <c r="A331" s="22" t="s">
         <v>640</v>
       </c>
@@ -13711,7 +13709,7 @@
       </c>
       <c r="I331" s="146"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9">
       <c r="A332" s="22" t="s">
         <v>643</v>
       </c>
@@ -13736,7 +13734,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9">
       <c r="A333" s="22" t="s">
         <v>646</v>
       </c>
@@ -13761,7 +13759,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9">
       <c r="A334" s="22" t="s">
         <v>649</v>
       </c>
@@ -13784,7 +13782,7 @@
       </c>
       <c r="I334" s="146"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9">
       <c r="A335" s="33" t="s">
         <v>1671</v>
       </c>
@@ -13809,7 +13807,7 @@
       </c>
       <c r="I335" s="147"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9">
       <c r="A336" s="22" t="s">
         <v>651</v>
       </c>
@@ -13832,7 +13830,7 @@
       </c>
       <c r="I336" s="146"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9">
       <c r="A337" s="22" t="s">
         <v>654</v>
       </c>
@@ -13855,7 +13853,7 @@
       </c>
       <c r="I337" s="146"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9">
       <c r="A338" s="22" t="s">
         <v>656</v>
       </c>
@@ -13878,7 +13876,7 @@
       </c>
       <c r="I338" s="146"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9">
       <c r="A339" s="22" t="s">
         <v>659</v>
       </c>
@@ -13901,7 +13899,7 @@
       </c>
       <c r="I339" s="146"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9">
       <c r="A340" s="40" t="s">
         <v>662</v>
       </c>
@@ -13924,7 +13922,7 @@
       </c>
       <c r="I340" s="146"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9">
       <c r="A341" s="19" t="s">
         <v>665</v>
       </c>
@@ -13937,7 +13935,7 @@
       <c r="H341" s="152"/>
       <c r="I341" s="152"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9">
       <c r="A342" s="22" t="s">
         <v>666</v>
       </c>
@@ -13962,7 +13960,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9">
       <c r="A343" s="22" t="s">
         <v>669</v>
       </c>
@@ -13985,7 +13983,7 @@
       </c>
       <c r="I343" s="146"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9">
       <c r="A344" s="22" t="s">
         <v>672</v>
       </c>
@@ -14008,7 +14006,7 @@
       </c>
       <c r="I344" s="146"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9">
       <c r="A345" s="37" t="s">
         <v>117</v>
       </c>
@@ -14031,7 +14029,7 @@
       </c>
       <c r="I345" s="146"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9">
       <c r="A346" s="37" t="s">
         <v>1396</v>
       </c>
@@ -14054,7 +14052,7 @@
       </c>
       <c r="I346" s="146"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9">
       <c r="A347" s="37" t="s">
         <v>674</v>
       </c>
@@ -14077,7 +14075,7 @@
       </c>
       <c r="I347" s="146"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9">
       <c r="A348" s="37" t="s">
         <v>677</v>
       </c>
@@ -14102,7 +14100,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9">
       <c r="A349" s="37" t="s">
         <v>679</v>
       </c>
@@ -14125,7 +14123,7 @@
       </c>
       <c r="I349" s="146"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9">
       <c r="A350" s="37" t="s">
         <v>682</v>
       </c>
@@ -14150,7 +14148,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9">
       <c r="A351" s="22" t="s">
         <v>685</v>
       </c>
@@ -14175,7 +14173,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9">
       <c r="A352" s="19" t="s">
         <v>688</v>
       </c>
@@ -14188,7 +14186,7 @@
       <c r="H352" s="152"/>
       <c r="I352" s="152"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9">
       <c r="A353" s="22" t="s">
         <v>689</v>
       </c>
@@ -14211,7 +14209,7 @@
       </c>
       <c r="I353" s="146"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9">
       <c r="A354" s="33" t="s">
         <v>1637</v>
       </c>
@@ -14236,7 +14234,7 @@
       </c>
       <c r="I354" s="147"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9">
       <c r="A355" s="26" t="s">
         <v>692</v>
       </c>
@@ -14261,7 +14259,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9">
       <c r="A356" s="19" t="s">
         <v>695</v>
       </c>
@@ -14274,7 +14272,7 @@
       <c r="H356" s="152"/>
       <c r="I356" s="152"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9">
       <c r="A357" s="22" t="s">
         <v>696</v>
       </c>
@@ -14299,7 +14297,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9">
       <c r="A358" s="19" t="s">
         <v>699</v>
       </c>
@@ -14312,7 +14310,7 @@
       <c r="H358" s="152"/>
       <c r="I358" s="152"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9">
       <c r="A359" s="22" t="s">
         <v>700</v>
       </c>
@@ -14337,7 +14335,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9">
       <c r="A360" s="19" t="s">
         <v>702</v>
       </c>
@@ -14350,7 +14348,7 @@
       <c r="H360" s="152"/>
       <c r="I360" s="152"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9">
       <c r="A361" s="22" t="s">
         <v>703</v>
       </c>
@@ -14375,7 +14373,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9">
       <c r="A362" s="22" t="s">
         <v>706</v>
       </c>
@@ -14398,7 +14396,7 @@
       </c>
       <c r="I362" s="146"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9">
       <c r="A363" s="22" t="s">
         <v>709</v>
       </c>
@@ -14423,7 +14421,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9">
       <c r="A364" s="22" t="s">
         <v>712</v>
       </c>
@@ -14446,7 +14444,7 @@
       </c>
       <c r="I364" s="146"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9">
       <c r="A365" s="19" t="s">
         <v>716</v>
       </c>
@@ -14459,7 +14457,7 @@
       <c r="H365" s="152"/>
       <c r="I365" s="152"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9">
       <c r="A366" s="22" t="s">
         <v>717</v>
       </c>
@@ -14484,7 +14482,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9">
       <c r="A367" s="43" t="s">
         <v>720</v>
       </c>
@@ -14509,7 +14507,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9">
       <c r="A368" s="40" t="s">
         <v>723</v>
       </c>
@@ -14534,7 +14532,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9">
       <c r="A369" s="19" t="s">
         <v>727</v>
       </c>
@@ -14547,7 +14545,7 @@
       <c r="H369" s="152"/>
       <c r="I369" s="152"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9">
       <c r="A370" s="22" t="s">
         <v>728</v>
       </c>
@@ -14570,7 +14568,7 @@
       </c>
       <c r="I370" s="146"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9">
       <c r="A371" s="22" t="s">
         <v>1503</v>
       </c>
@@ -14593,7 +14591,7 @@
       </c>
       <c r="I371" s="146"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9">
       <c r="A372" s="19" t="s">
         <v>91</v>
       </c>
@@ -14606,7 +14604,7 @@
       <c r="H372" s="152"/>
       <c r="I372" s="152"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9">
       <c r="A373" s="22" t="s">
         <v>92</v>
       </c>
@@ -14631,7 +14629,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9">
       <c r="A374" s="22" t="s">
         <v>96</v>
       </c>
@@ -14656,7 +14654,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9">
       <c r="A375" s="22" t="s">
         <v>1511</v>
       </c>
@@ -14679,7 +14677,7 @@
       </c>
       <c r="I375" s="146"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9">
       <c r="A376" s="22" t="s">
         <v>1497</v>
       </c>
@@ -14702,7 +14700,7 @@
       </c>
       <c r="I376" s="146"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9">
       <c r="A377" s="22" t="s">
         <v>1500</v>
       </c>
@@ -14725,7 +14723,7 @@
       </c>
       <c r="I377" s="146"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9">
       <c r="A378" s="26" t="s">
         <v>99</v>
       </c>
@@ -14750,7 +14748,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9">
       <c r="A379" s="27" t="s">
         <v>731</v>
       </c>
@@ -14775,7 +14773,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9">
       <c r="A380" s="27" t="s">
         <v>733</v>
       </c>
@@ -14798,7 +14796,7 @@
       </c>
       <c r="I380" s="146"/>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9">
       <c r="A381" s="27" t="s">
         <v>736</v>
       </c>
@@ -14821,7 +14819,7 @@
       </c>
       <c r="I381" s="146"/>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9">
       <c r="A382" s="22" t="s">
         <v>103</v>
       </c>
@@ -14846,7 +14844,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9">
       <c r="A383" s="22" t="s">
         <v>739</v>
       </c>
@@ -14869,7 +14867,7 @@
       </c>
       <c r="I383" s="146"/>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9">
       <c r="A384" s="19" t="s">
         <v>742</v>
       </c>
@@ -14882,7 +14880,7 @@
       <c r="H384" s="152"/>
       <c r="I384" s="152"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9">
       <c r="A385" s="22" t="s">
         <v>743</v>
       </c>
@@ -14907,7 +14905,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9">
       <c r="A386" s="22" t="s">
         <v>745</v>
       </c>
@@ -14932,7 +14930,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9">
       <c r="A387" s="22" t="s">
         <v>748</v>
       </c>
@@ -14957,7 +14955,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9">
       <c r="A388" s="22" t="s">
         <v>751</v>
       </c>
@@ -14982,7 +14980,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9">
       <c r="A389" s="22" t="s">
         <v>754</v>
       </c>
@@ -15007,7 +15005,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9">
       <c r="A390" s="22" t="s">
         <v>756</v>
       </c>
@@ -15030,7 +15028,7 @@
       </c>
       <c r="I390" s="146"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9">
       <c r="A391" s="22" t="s">
         <v>759</v>
       </c>
@@ -15055,7 +15053,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9">
       <c r="A392" s="22" t="s">
         <v>762</v>
       </c>
@@ -15080,7 +15078,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9">
       <c r="A393" s="72" t="s">
         <v>769</v>
       </c>
@@ -15093,7 +15091,7 @@
       <c r="H393" s="155"/>
       <c r="I393" s="155"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9">
       <c r="A394" s="111" t="s">
         <v>25</v>
       </c>
@@ -15106,7 +15104,7 @@
       <c r="H394" s="157"/>
       <c r="I394" s="157"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9">
       <c r="A395" s="100" t="s">
         <v>1524</v>
       </c>
@@ -15129,7 +15127,7 @@
       </c>
       <c r="I395" s="146"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9">
       <c r="A396" s="101" t="s">
         <v>1541</v>
       </c>
@@ -15154,7 +15152,7 @@
       </c>
       <c r="I396" s="147"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9">
       <c r="A397" s="101" t="s">
         <v>1631</v>
       </c>
@@ -15179,7 +15177,7 @@
       </c>
       <c r="I397" s="147"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9">
       <c r="A398" s="101" t="s">
         <v>1556</v>
       </c>
@@ -15204,7 +15202,7 @@
       </c>
       <c r="I398" s="147"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9">
       <c r="A399" s="111" t="s">
         <v>1647</v>
       </c>
@@ -15217,7 +15215,7 @@
       <c r="H399" s="157"/>
       <c r="I399" s="157"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9">
       <c r="A400" s="101" t="s">
         <v>1648</v>
       </c>
@@ -15242,7 +15240,7 @@
       </c>
       <c r="I400" s="147"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9">
       <c r="A401" s="74" t="s">
         <v>770</v>
       </c>
@@ -15255,7 +15253,7 @@
       <c r="H401" s="158"/>
       <c r="I401" s="158"/>
     </row>
-    <row r="402" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" s="2" customFormat="1">
       <c r="A402" s="77" t="s">
         <v>771</v>
       </c>
@@ -15268,7 +15266,7 @@
       <c r="H402" s="159"/>
       <c r="I402" s="159"/>
     </row>
-    <row r="403" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" s="2" customFormat="1">
       <c r="A403" s="67" t="s">
         <v>772</v>
       </c>
@@ -15281,7 +15279,7 @@
       <c r="H403" s="156"/>
       <c r="I403" s="156"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9">
       <c r="A404" s="88" t="s">
         <v>1564</v>
       </c>
@@ -15304,7 +15302,7 @@
       </c>
       <c r="I404" s="143"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9">
       <c r="A405" s="88" t="s">
         <v>1565</v>
       </c>
@@ -15327,7 +15325,7 @@
       </c>
       <c r="I405" s="143"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9">
       <c r="A406" s="77" t="s">
         <v>774</v>
       </c>
@@ -15340,7 +15338,7 @@
       <c r="H406" s="159"/>
       <c r="I406" s="159"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9">
       <c r="A407" s="67" t="s">
         <v>775</v>
       </c>
@@ -15353,7 +15351,7 @@
       <c r="H407" s="156"/>
       <c r="I407" s="156"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9">
       <c r="A408" s="52" t="s">
         <v>776</v>
       </c>
@@ -15376,7 +15374,7 @@
       </c>
       <c r="I408" s="146"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9">
       <c r="A409" s="77" t="s">
         <v>779</v>
       </c>
@@ -15389,7 +15387,7 @@
       <c r="H409" s="159"/>
       <c r="I409" s="159"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9">
       <c r="A410" s="67" t="s">
         <v>772</v>
       </c>
@@ -15402,7 +15400,7 @@
       <c r="H410" s="156"/>
       <c r="I410" s="156"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9">
       <c r="A411" s="22" t="s">
         <v>780</v>
       </c>
@@ -15425,7 +15423,7 @@
       </c>
       <c r="I411" s="146"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9">
       <c r="A412" s="22" t="s">
         <v>782</v>
       </c>
@@ -15448,7 +15446,7 @@
       </c>
       <c r="I412" s="146"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9">
       <c r="A413" s="22" t="s">
         <v>785</v>
       </c>
@@ -15471,7 +15469,7 @@
       </c>
       <c r="I413" s="146"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9">
       <c r="A414" s="77" t="s">
         <v>788</v>
       </c>
@@ -15484,7 +15482,7 @@
       <c r="H414" s="159"/>
       <c r="I414" s="159"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9">
       <c r="A415" s="67" t="s">
         <v>772</v>
       </c>
@@ -15497,7 +15495,7 @@
       <c r="H415" s="156"/>
       <c r="I415" s="156"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9">
       <c r="A416" s="22" t="s">
         <v>789</v>
       </c>
@@ -15520,7 +15518,7 @@
       </c>
       <c r="I416" s="146"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9">
       <c r="A417" s="67" t="s">
         <v>792</v>
       </c>
@@ -15533,7 +15531,7 @@
       <c r="H417" s="156"/>
       <c r="I417" s="156"/>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9">
       <c r="A418" s="22" t="s">
         <v>793</v>
       </c>
@@ -15558,7 +15556,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9">
       <c r="A419" s="22" t="s">
         <v>1428</v>
       </c>
@@ -15583,7 +15581,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9">
       <c r="A420" s="77" t="s">
         <v>796</v>
       </c>
@@ -15596,7 +15594,7 @@
       <c r="H420" s="159"/>
       <c r="I420" s="159"/>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9">
       <c r="A421" s="67" t="s">
         <v>772</v>
       </c>
@@ -15609,7 +15607,7 @@
       <c r="H421" s="156"/>
       <c r="I421" s="156"/>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9">
       <c r="A422" s="22" t="s">
         <v>797</v>
       </c>
@@ -15634,7 +15632,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9">
       <c r="A423" s="77" t="s">
         <v>1598</v>
       </c>
@@ -15647,7 +15645,7 @@
       <c r="H423" s="159"/>
       <c r="I423" s="159"/>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9">
       <c r="A424" s="33" t="s">
         <v>1599</v>
       </c>
@@ -15672,7 +15670,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9">
       <c r="A425" s="77" t="s">
         <v>800</v>
       </c>
@@ -15685,7 +15683,7 @@
       <c r="H425" s="159"/>
       <c r="I425" s="159"/>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9">
       <c r="A426" s="67" t="s">
         <v>801</v>
       </c>
@@ -15698,7 +15696,7 @@
       <c r="H426" s="156"/>
       <c r="I426" s="156"/>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9">
       <c r="A427" s="33" t="s">
         <v>1539</v>
       </c>
@@ -15723,7 +15721,7 @@
       </c>
       <c r="I427" s="147"/>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9">
       <c r="A428" s="67" t="s">
         <v>802</v>
       </c>
@@ -15736,7 +15734,7 @@
       <c r="H428" s="156"/>
       <c r="I428" s="156"/>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9">
       <c r="A429" s="22" t="s">
         <v>803</v>
       </c>
@@ -15761,7 +15759,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9">
       <c r="A430" s="22" t="s">
         <v>1489</v>
       </c>
@@ -15784,7 +15782,7 @@
       </c>
       <c r="I430" s="146"/>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9">
       <c r="A431" s="22" t="s">
         <v>1357</v>
       </c>
@@ -15809,7 +15807,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9">
       <c r="A432" s="33" t="s">
         <v>1608</v>
       </c>
@@ -15834,7 +15832,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9">
       <c r="A433" s="33" t="s">
         <v>1611</v>
       </c>
@@ -15859,7 +15857,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9">
       <c r="A434" s="67" t="s">
         <v>1421</v>
       </c>
@@ -15872,7 +15870,7 @@
       <c r="H434" s="160"/>
       <c r="I434" s="160"/>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9">
       <c r="A435" s="22" t="s">
         <v>1422</v>
       </c>
@@ -15897,7 +15895,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9">
       <c r="A436" s="33" t="s">
         <v>1537</v>
       </c>
@@ -15922,7 +15920,7 @@
       </c>
       <c r="I436" s="147"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9">
       <c r="A437" s="74" t="s">
         <v>1484</v>
       </c>
@@ -15935,7 +15933,7 @@
       <c r="H437" s="158"/>
       <c r="I437" s="158"/>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9">
       <c r="A438" s="77" t="s">
         <v>806</v>
       </c>
@@ -15948,7 +15946,7 @@
       <c r="H438" s="159"/>
       <c r="I438" s="159"/>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9">
       <c r="A439" s="41" t="s">
         <v>807</v>
       </c>
@@ -15973,7 +15971,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9">
       <c r="A440" s="41" t="s">
         <v>810</v>
       </c>
@@ -15998,7 +15996,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9">
       <c r="A441" s="22" t="s">
         <v>813</v>
       </c>
@@ -16023,7 +16021,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9">
       <c r="A442" s="77" t="s">
         <v>816</v>
       </c>
@@ -16036,7 +16034,7 @@
       <c r="H442" s="161"/>
       <c r="I442" s="161"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9">
       <c r="A443" s="41" t="s">
         <v>817</v>
       </c>
@@ -16061,7 +16059,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9">
       <c r="A444" s="74" t="s">
         <v>1485</v>
       </c>
@@ -16074,7 +16072,7 @@
       <c r="H444" s="158"/>
       <c r="I444" s="158"/>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9">
       <c r="A445" s="22" t="s">
         <v>1412</v>
       </c>
@@ -16097,7 +16095,7 @@
       </c>
       <c r="I445" s="146"/>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9">
       <c r="A446" s="94" t="s">
         <v>819</v>
       </c>
@@ -16110,7 +16108,7 @@
       <c r="H446" s="162"/>
       <c r="I446" s="162"/>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9">
       <c r="A447" s="22" t="s">
         <v>821</v>
       </c>
@@ -16135,7 +16133,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9">
       <c r="A448" s="94" t="s">
         <v>823</v>
       </c>
@@ -16148,7 +16146,7 @@
       <c r="H448" s="162"/>
       <c r="I448" s="162"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9">
       <c r="A449" s="22" t="s">
         <v>824</v>
       </c>
@@ -16173,7 +16171,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9">
       <c r="A450" s="74" t="s">
         <v>827</v>
       </c>
@@ -16186,7 +16184,7 @@
       <c r="H450" s="158"/>
       <c r="I450" s="158"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9">
       <c r="A451" s="94" t="s">
         <v>828</v>
       </c>
@@ -16199,7 +16197,7 @@
       <c r="H451" s="157"/>
       <c r="I451" s="157"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9">
       <c r="A452" s="67" t="s">
         <v>829</v>
       </c>
@@ -16212,7 +16210,7 @@
       <c r="H452" s="153"/>
       <c r="I452" s="153"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9">
       <c r="A453" s="99" t="s">
         <v>831</v>
       </c>
@@ -16237,7 +16235,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9">
       <c r="A454" s="67" t="s">
         <v>1425</v>
       </c>
@@ -16250,7 +16248,7 @@
       <c r="H454" s="153"/>
       <c r="I454" s="153"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9">
       <c r="A455" s="27" t="s">
         <v>1426</v>
       </c>
@@ -16275,7 +16273,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9">
       <c r="A456" s="94" t="s">
         <v>834</v>
       </c>
@@ -16288,7 +16286,7 @@
       <c r="H456" s="162"/>
       <c r="I456" s="162"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9">
       <c r="A457" s="67" t="s">
         <v>835</v>
       </c>
@@ -16301,7 +16299,7 @@
       <c r="H457" s="156"/>
       <c r="I457" s="156"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9">
       <c r="A458" s="22" t="s">
         <v>836</v>
       </c>
@@ -16326,7 +16324,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9">
       <c r="A459" s="67" t="s">
         <v>839</v>
       </c>
@@ -16339,7 +16337,7 @@
       <c r="H459" s="156"/>
       <c r="I459" s="156"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9">
       <c r="A460" s="22" t="s">
         <v>840</v>
       </c>
@@ -16364,7 +16362,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9">
       <c r="A461" s="22" t="s">
         <v>843</v>
       </c>
@@ -16389,7 +16387,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9">
       <c r="A462" s="22" t="s">
         <v>846</v>
       </c>
@@ -16414,7 +16412,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9">
       <c r="A463" s="67" t="s">
         <v>848</v>
       </c>
@@ -16427,7 +16425,7 @@
       <c r="H463" s="156"/>
       <c r="I463" s="156"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9">
       <c r="A464" s="41" t="s">
         <v>849</v>
       </c>
@@ -16452,7 +16450,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9">
       <c r="A465" s="41" t="s">
         <v>851</v>
       </c>
@@ -16475,7 +16473,7 @@
       </c>
       <c r="I465" s="146"/>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9">
       <c r="A466" s="41" t="s">
         <v>853</v>
       </c>
@@ -16500,7 +16498,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9">
       <c r="A467" s="41" t="s">
         <v>856</v>
       </c>
@@ -16525,7 +16523,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9">
       <c r="A468" s="94" t="s">
         <v>1653</v>
       </c>
@@ -16538,7 +16536,7 @@
       <c r="H468" s="94"/>
       <c r="I468" s="94"/>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9">
       <c r="A469" s="88" t="s">
         <v>1650</v>
       </c>
@@ -16565,7 +16563,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9">
       <c r="A470" s="94" t="s">
         <v>1654</v>
       </c>
@@ -16578,7 +16576,7 @@
       <c r="H470" s="94"/>
       <c r="I470" s="94"/>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9">
       <c r="A471" s="88" t="s">
         <v>1655</v>
       </c>
@@ -16605,7 +16603,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9">
       <c r="A472" s="94" t="s">
         <v>1658</v>
       </c>
@@ -16618,7 +16616,7 @@
       <c r="H472" s="94"/>
       <c r="I472" s="94"/>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9">
       <c r="A473" s="88" t="s">
         <v>1659</v>
       </c>
@@ -16645,7 +16643,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9">
       <c r="A474" s="94" t="s">
         <v>859</v>
       </c>
@@ -16658,7 +16656,7 @@
       <c r="H474" s="157"/>
       <c r="I474" s="157"/>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9">
       <c r="A475" s="100" t="s">
         <v>1333</v>
       </c>
@@ -16683,7 +16681,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9">
       <c r="A476" s="100" t="s">
         <v>1385</v>
       </c>
@@ -16708,7 +16706,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9">
       <c r="A477" s="100" t="s">
         <v>1487</v>
       </c>
@@ -16731,7 +16729,7 @@
       </c>
       <c r="I477" s="146"/>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9">
       <c r="A478" s="101" t="s">
         <v>1566</v>
       </c>
@@ -16758,7 +16756,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9">
       <c r="A479" s="100" t="s">
         <v>860</v>
       </c>
@@ -16783,7 +16781,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9">
       <c r="A480" s="41" t="s">
         <v>863</v>
       </c>
@@ -16806,7 +16804,7 @@
       </c>
       <c r="I480" s="146"/>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9">
       <c r="A481" s="88" t="s">
         <v>1546</v>
       </c>
@@ -16831,7 +16829,7 @@
       </c>
       <c r="I481" s="147"/>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9">
       <c r="A482" s="88" t="s">
         <v>1614</v>
       </c>
@@ -16856,7 +16854,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9">
       <c r="A483" s="88" t="s">
         <v>1662</v>
       </c>
@@ -16883,7 +16881,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9">
       <c r="A484" s="100" t="s">
         <v>866</v>
       </c>
@@ -16908,7 +16906,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9">
       <c r="A485" s="100" t="s">
         <v>1481</v>
       </c>
@@ -16931,7 +16929,7 @@
       </c>
       <c r="I485" s="146"/>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9">
       <c r="A486" s="22" t="s">
         <v>1479</v>
       </c>
@@ -16954,7 +16952,7 @@
       </c>
       <c r="I486" s="146"/>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9">
       <c r="A487" s="22" t="s">
         <v>1506</v>
       </c>
@@ -16977,7 +16975,7 @@
       </c>
       <c r="I487" s="146"/>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9">
       <c r="A488" s="100" t="s">
         <v>1401</v>
       </c>
@@ -17000,7 +16998,7 @@
       </c>
       <c r="I488" s="146"/>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9">
       <c r="A489" s="100" t="s">
         <v>869</v>
       </c>
@@ -17025,7 +17023,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9">
       <c r="A490" s="100" t="s">
         <v>872</v>
       </c>
@@ -17048,7 +17046,7 @@
       </c>
       <c r="I490" s="146"/>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9">
       <c r="A491" s="100" t="s">
         <v>875</v>
       </c>
@@ -17073,7 +17071,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9">
       <c r="A492" s="100" t="s">
         <v>1446</v>
       </c>
@@ -17096,7 +17094,7 @@
       </c>
       <c r="I492" s="146"/>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9">
       <c r="A493" s="100" t="s">
         <v>878</v>
       </c>
@@ -17121,7 +17119,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9">
       <c r="A494" s="100" t="s">
         <v>1418</v>
       </c>
@@ -17144,7 +17142,7 @@
       </c>
       <c r="I494" s="146"/>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9">
       <c r="A495" s="100" t="s">
         <v>1526</v>
       </c>
@@ -17167,7 +17165,7 @@
       </c>
       <c r="I495" s="146"/>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9">
       <c r="A496" s="94" t="s">
         <v>880</v>
       </c>
@@ -17180,7 +17178,7 @@
       <c r="H496" s="162"/>
       <c r="I496" s="162"/>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9">
       <c r="A497" s="22" t="s">
         <v>881</v>
       </c>
@@ -17205,7 +17203,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9">
       <c r="A498" s="22" t="s">
         <v>884</v>
       </c>
@@ -17228,7 +17226,7 @@
       </c>
       <c r="I498" s="146"/>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9">
       <c r="A499" s="22" t="s">
         <v>886</v>
       </c>
@@ -17253,7 +17251,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9">
       <c r="A500" s="22" t="s">
         <v>1359</v>
       </c>
@@ -17278,7 +17276,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9">
       <c r="A501" s="22" t="s">
         <v>889</v>
       </c>
@@ -17303,7 +17301,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9">
       <c r="A502" s="22" t="s">
         <v>892</v>
       </c>
@@ -17326,7 +17324,7 @@
       </c>
       <c r="I502" s="146"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9">
       <c r="A503" s="22" t="s">
         <v>894</v>
       </c>
@@ -17351,7 +17349,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9">
       <c r="A504" s="94" t="s">
         <v>897</v>
       </c>
@@ -17364,7 +17362,7 @@
       <c r="H504" s="162"/>
       <c r="I504" s="162"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9">
       <c r="A505" s="19" t="s">
         <v>898</v>
       </c>
@@ -17377,7 +17375,7 @@
       <c r="H505" s="154"/>
       <c r="I505" s="154"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9">
       <c r="A506" s="22" t="s">
         <v>899</v>
       </c>
@@ -17402,7 +17400,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9">
       <c r="A507" s="19" t="s">
         <v>902</v>
       </c>
@@ -17415,7 +17413,7 @@
       <c r="H507" s="154"/>
       <c r="I507" s="154"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9">
       <c r="A508" s="22" t="s">
         <v>903</v>
       </c>
@@ -17438,7 +17436,7 @@
       </c>
       <c r="I508" s="146"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9">
       <c r="A509" s="19" t="s">
         <v>906</v>
       </c>
@@ -17451,7 +17449,7 @@
       <c r="H509" s="154"/>
       <c r="I509" s="154"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9">
       <c r="A510" s="22" t="s">
         <v>907</v>
       </c>
@@ -17476,7 +17474,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9">
       <c r="A511" s="19" t="s">
         <v>910</v>
       </c>
@@ -17489,7 +17487,7 @@
       <c r="H511" s="154"/>
       <c r="I511" s="154"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9">
       <c r="A512" s="22" t="s">
         <v>911</v>
       </c>
@@ -17514,7 +17512,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9">
       <c r="A513" s="94" t="s">
         <v>914</v>
       </c>
@@ -17527,7 +17525,7 @@
       <c r="H513" s="162"/>
       <c r="I513" s="162"/>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9">
       <c r="A514" s="22" t="s">
         <v>915</v>
       </c>
@@ -17552,7 +17550,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9">
       <c r="A515" s="22" t="s">
         <v>918</v>
       </c>
@@ -17577,7 +17575,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9">
       <c r="A516" s="94" t="s">
         <v>920</v>
       </c>
@@ -17590,7 +17588,7 @@
       <c r="H516" s="162"/>
       <c r="I516" s="162"/>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9">
       <c r="A517" s="41" t="s">
         <v>1342</v>
       </c>
@@ -17613,7 +17611,7 @@
       </c>
       <c r="I517" s="146"/>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9">
       <c r="A518" s="100" t="s">
         <v>921</v>
       </c>
@@ -17636,7 +17634,7 @@
       </c>
       <c r="I518" s="146"/>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9">
       <c r="A519" s="100" t="s">
         <v>1515</v>
       </c>
@@ -17659,7 +17657,7 @@
       </c>
       <c r="I519" s="146"/>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9">
       <c r="A520" s="74" t="s">
         <v>923</v>
       </c>
@@ -17672,7 +17670,7 @@
       <c r="H520" s="163"/>
       <c r="I520" s="163"/>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9">
       <c r="A521" s="94" t="s">
         <v>924</v>
       </c>
@@ -17685,7 +17683,7 @@
       <c r="H521" s="162"/>
       <c r="I521" s="162"/>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9">
       <c r="A522" s="52" t="s">
         <v>925</v>
       </c>
@@ -17710,7 +17708,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9">
       <c r="A523" s="108" t="s">
         <v>928</v>
       </c>
@@ -17733,7 +17731,7 @@
       </c>
       <c r="I523" s="146"/>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9">
       <c r="A524" s="108" t="s">
         <v>931</v>
       </c>
@@ -17758,7 +17756,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9">
       <c r="A525" s="108" t="s">
         <v>1372</v>
       </c>
@@ -17783,7 +17781,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9">
       <c r="A526" s="22" t="s">
         <v>934</v>
       </c>
@@ -17808,7 +17806,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9">
       <c r="A527" s="74" t="s">
         <v>937</v>
       </c>
@@ -17821,7 +17819,7 @@
       <c r="H527" s="158"/>
       <c r="I527" s="158"/>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9">
       <c r="A528" s="94" t="s">
         <v>1569</v>
       </c>
@@ -17834,7 +17832,7 @@
       <c r="H528" s="157"/>
       <c r="I528" s="157"/>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9">
       <c r="A529" s="174" t="s">
         <v>1570</v>
       </c>
@@ -17859,7 +17857,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9">
       <c r="A530" s="174" t="s">
         <v>1573</v>
       </c>
@@ -17884,7 +17882,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9">
       <c r="A531" s="174" t="s">
         <v>1642</v>
       </c>
@@ -17909,7 +17907,7 @@
       </c>
       <c r="I531" s="188"/>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9">
       <c r="A532" s="174" t="s">
         <v>1668</v>
       </c>
@@ -17936,7 +17934,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9">
       <c r="A533" s="94" t="s">
         <v>938</v>
       </c>
@@ -17949,7 +17947,7 @@
       <c r="H533" s="157"/>
       <c r="I533" s="157"/>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9">
       <c r="A534" s="3" t="s">
         <v>939</v>
       </c>
@@ -17974,7 +17972,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9">
       <c r="A535" s="74" t="s">
         <v>942</v>
       </c>
@@ -17987,7 +17985,7 @@
       <c r="H535" s="158"/>
       <c r="I535" s="158"/>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9">
       <c r="A536" s="94" t="s">
         <v>943</v>
       </c>
@@ -18000,7 +17998,7 @@
       <c r="H536" s="162"/>
       <c r="I536" s="162"/>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9">
       <c r="A537" s="22" t="s">
         <v>944</v>
       </c>
@@ -18025,7 +18023,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9">
       <c r="A538" s="22" t="s">
         <v>947</v>
       </c>
@@ -18050,7 +18048,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9">
       <c r="A539" s="22" t="s">
         <v>950</v>
       </c>
@@ -18075,7 +18073,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9">
       <c r="A540" s="22" t="s">
         <v>953</v>
       </c>
@@ -18100,7 +18098,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9">
       <c r="A541" s="94" t="s">
         <v>956</v>
       </c>
@@ -18113,7 +18111,7 @@
       <c r="H541" s="162"/>
       <c r="I541" s="162"/>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9">
       <c r="A542" s="22" t="s">
         <v>957</v>
       </c>
@@ -18138,7 +18136,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9">
       <c r="A543" s="22" t="s">
         <v>960</v>
       </c>
@@ -18163,7 +18161,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9">
       <c r="A544" s="22" t="s">
         <v>1361</v>
       </c>
@@ -18188,7 +18186,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9">
       <c r="A545" s="94" t="s">
         <v>963</v>
       </c>
@@ -18201,7 +18199,7 @@
       <c r="H545" s="162"/>
       <c r="I545" s="162"/>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9">
       <c r="A546" s="22" t="s">
         <v>964</v>
       </c>
@@ -18226,7 +18224,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9">
       <c r="A547" s="94" t="s">
         <v>968</v>
       </c>
@@ -18239,7 +18237,7 @@
       <c r="H547" s="162"/>
       <c r="I547" s="162"/>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9">
       <c r="A548" s="27" t="s">
         <v>969</v>
       </c>
@@ -18264,7 +18262,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9">
       <c r="A549" s="94" t="s">
         <v>971</v>
       </c>
@@ -18277,7 +18275,7 @@
       <c r="H549" s="162"/>
       <c r="I549" s="162"/>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9">
       <c r="A550" s="27" t="s">
         <v>972</v>
       </c>
@@ -18302,7 +18300,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9">
       <c r="A551" s="99" t="s">
         <v>975</v>
       </c>
@@ -18327,7 +18325,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9">
       <c r="A552" s="27" t="s">
         <v>978</v>
       </c>
@@ -18352,7 +18350,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9">
       <c r="A553" s="22" t="s">
         <v>981</v>
       </c>
@@ -18377,7 +18375,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9">
       <c r="A554" s="26" t="s">
         <v>1336</v>
       </c>
@@ -18402,7 +18400,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9">
       <c r="A555" s="26" t="s">
         <v>1375</v>
       </c>
@@ -18427,7 +18425,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9">
       <c r="A556" s="74" t="s">
         <v>984</v>
       </c>
@@ -18440,7 +18438,7 @@
       <c r="H556" s="163"/>
       <c r="I556" s="163"/>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9">
       <c r="A557" s="67" t="s">
         <v>985</v>
       </c>
@@ -18453,7 +18451,7 @@
       <c r="H557" s="164"/>
       <c r="I557" s="164"/>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9">
       <c r="A558" s="22" t="s">
         <v>1449</v>
       </c>
@@ -18478,7 +18476,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9">
       <c r="A559" s="22" t="s">
         <v>986</v>
       </c>
@@ -18503,7 +18501,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9">
       <c r="A560" s="33" t="s">
         <v>1584</v>
       </c>
@@ -18528,7 +18526,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9">
       <c r="A561" s="67" t="s">
         <v>1575</v>
       </c>
@@ -18541,7 +18539,7 @@
       <c r="H561" s="164"/>
       <c r="I561" s="164"/>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9">
       <c r="A562" s="33" t="s">
         <v>1576</v>
       </c>
@@ -18566,7 +18564,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9">
       <c r="A563" s="67" t="s">
         <v>989</v>
       </c>
@@ -18579,7 +18577,7 @@
       <c r="H563" s="164"/>
       <c r="I563" s="164"/>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9">
       <c r="A564" s="22" t="s">
         <v>990</v>
       </c>
@@ -18602,7 +18600,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9">
       <c r="A565" s="67" t="s">
         <v>993</v>
       </c>
@@ -18615,7 +18613,7 @@
       <c r="H565" s="164"/>
       <c r="I565" s="164"/>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9">
       <c r="A566" s="22" t="s">
         <v>1432</v>
       </c>
@@ -18638,7 +18636,7 @@
       </c>
       <c r="I566" s="146"/>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9">
       <c r="A567" s="33" t="s">
         <v>1581</v>
       </c>
@@ -18663,7 +18661,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9">
       <c r="A568" s="67" t="s">
         <v>994</v>
       </c>
@@ -18676,7 +18674,7 @@
       <c r="H568" s="164"/>
       <c r="I568" s="164"/>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9">
       <c r="A569" s="22" t="s">
         <v>1435</v>
       </c>
@@ -18699,7 +18697,7 @@
       </c>
       <c r="I569" s="146"/>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9">
       <c r="A570" s="67" t="s">
         <v>995</v>
       </c>
@@ -18712,7 +18710,7 @@
       <c r="H570" s="164"/>
       <c r="I570" s="164"/>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9">
       <c r="A571" s="22" t="s">
         <v>1430</v>
       </c>
@@ -18737,7 +18735,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9">
       <c r="A572" s="67" t="s">
         <v>996</v>
       </c>
@@ -18750,7 +18748,7 @@
       <c r="H572" s="164"/>
       <c r="I572" s="164"/>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9">
       <c r="A573" s="33" t="s">
         <v>1579</v>
       </c>
@@ -18775,7 +18773,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9">
       <c r="A574" s="109" t="s">
         <v>998</v>
       </c>
@@ -18788,7 +18786,7 @@
       <c r="H574" s="165"/>
       <c r="I574" s="165"/>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9">
       <c r="A575" s="22" t="s">
         <v>1440</v>
       </c>
@@ -18813,7 +18811,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9">
       <c r="A576" s="33" t="s">
         <v>1590</v>
       </c>
@@ -18838,7 +18836,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9">
       <c r="A577" s="109" t="s">
         <v>999</v>
       </c>
@@ -18851,7 +18849,7 @@
       <c r="H577" s="165"/>
       <c r="I577" s="165"/>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9">
       <c r="A578" s="22" t="s">
         <v>1438</v>
       </c>
@@ -18876,7 +18874,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9">
       <c r="A579" s="33" t="s">
         <v>1586</v>
       </c>
@@ -18901,7 +18899,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9">
       <c r="A580" s="74" t="s">
         <v>1001</v>
       </c>
@@ -18914,7 +18912,7 @@
       <c r="H580" s="163"/>
       <c r="I580" s="163"/>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9">
       <c r="A581" s="94" t="s">
         <v>1002</v>
       </c>
@@ -18927,7 +18925,7 @@
       <c r="H581" s="162"/>
       <c r="I581" s="162"/>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9">
       <c r="A582" s="22" t="s">
         <v>303</v>
       </c>
@@ -18952,7 +18950,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9">
       <c r="A583" s="22" t="s">
         <v>1003</v>
       </c>
@@ -18975,7 +18973,7 @@
       </c>
       <c r="I583" s="146"/>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9">
       <c r="A584" s="27" t="s">
         <v>1007</v>
       </c>
@@ -19000,7 +18998,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9">
       <c r="A585" s="22" t="s">
         <v>1009</v>
       </c>
@@ -19025,7 +19023,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9">
       <c r="A586" s="94" t="s">
         <v>1012</v>
       </c>
@@ -19038,7 +19036,7 @@
       <c r="H586" s="162"/>
       <c r="I586" s="162"/>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9">
       <c r="A587" s="22" t="s">
         <v>1013</v>
       </c>
@@ -19063,7 +19061,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9">
       <c r="A588" s="27" t="s">
         <v>1016</v>
       </c>
@@ -19088,7 +19086,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9">
       <c r="A589" s="44" t="s">
         <v>1620</v>
       </c>
@@ -19113,7 +19111,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9">
       <c r="A590" s="52" t="s">
         <v>1020</v>
       </c>
@@ -19138,7 +19136,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9">
       <c r="A591" s="27" t="s">
         <v>324</v>
       </c>
@@ -19163,7 +19161,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9">
       <c r="A592" s="94" t="s">
         <v>1023</v>
       </c>
@@ -19176,7 +19174,7 @@
       <c r="H592" s="162"/>
       <c r="I592" s="162"/>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9">
       <c r="A593" s="100" t="s">
         <v>1455</v>
       </c>
@@ -19199,7 +19197,7 @@
       </c>
       <c r="I593" s="146"/>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9">
       <c r="A594" s="101" t="s">
         <v>1645</v>
       </c>
@@ -19224,7 +19222,7 @@
       </c>
       <c r="I594" s="147"/>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9">
       <c r="A595" s="94" t="s">
         <v>552</v>
       </c>
@@ -19237,7 +19235,7 @@
       <c r="H595" s="162"/>
       <c r="I595" s="162"/>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9">
       <c r="A596" s="41" t="s">
         <v>1024</v>
       </c>
@@ -19260,7 +19258,7 @@
       </c>
       <c r="I596" s="146"/>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9">
       <c r="A597" s="41" t="s">
         <v>1027</v>
       </c>
@@ -19285,7 +19283,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9">
       <c r="A598" s="22" t="s">
         <v>1516</v>
       </c>
@@ -19308,7 +19306,7 @@
       </c>
       <c r="I598" s="146"/>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9">
       <c r="A599" s="22" t="s">
         <v>1031</v>
       </c>
@@ -19333,7 +19331,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9">
       <c r="A600" s="22" t="s">
         <v>1033</v>
       </c>
@@ -19358,7 +19356,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9">
       <c r="A601" s="26" t="s">
         <v>1035</v>
       </c>
@@ -19381,7 +19379,7 @@
       </c>
       <c r="I601" s="146"/>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9">
       <c r="A602" s="94" t="s">
         <v>1037</v>
       </c>
@@ -19394,7 +19392,7 @@
       <c r="H602" s="162"/>
       <c r="I602" s="162"/>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9">
       <c r="A603" s="53" t="s">
         <v>1038</v>
       </c>
@@ -19419,7 +19417,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9">
       <c r="A604" s="94" t="s">
         <v>1041</v>
       </c>
@@ -19432,7 +19430,7 @@
       <c r="H604" s="162"/>
       <c r="I604" s="162"/>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9">
       <c r="A605" s="41" t="s">
         <v>1042</v>
       </c>
@@ -19457,7 +19455,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9">
       <c r="A606" s="22" t="s">
         <v>1045</v>
       </c>
@@ -19482,7 +19480,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9">
       <c r="A607" s="48" t="s">
         <v>1047</v>
       </c>
@@ -19507,7 +19505,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9">
       <c r="A608" s="22" t="s">
         <v>1354</v>
       </c>
@@ -19532,7 +19530,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9">
       <c r="A609" s="22" t="s">
         <v>1050</v>
       </c>
@@ -19557,7 +19555,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9">
       <c r="A610" s="22" t="s">
         <v>1053</v>
       </c>
@@ -19580,7 +19578,7 @@
       </c>
       <c r="I610" s="146"/>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9">
       <c r="A611" s="22" t="s">
         <v>1415</v>
       </c>
@@ -19605,7 +19603,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9">
       <c r="A612" s="74" t="s">
         <v>1072</v>
       </c>
@@ -19618,7 +19616,7 @@
       <c r="H612" s="158"/>
       <c r="I612" s="158"/>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9">
       <c r="A613" s="111" t="s">
         <v>1073</v>
       </c>
@@ -19631,7 +19629,7 @@
       <c r="H613" s="157"/>
       <c r="I613" s="157"/>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9">
       <c r="A614" s="100" t="s">
         <v>1074</v>
       </c>
@@ -19656,7 +19654,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9">
       <c r="A615" s="111" t="s">
         <v>390</v>
       </c>
@@ -19669,7 +19667,7 @@
       <c r="H615" s="157"/>
       <c r="I615" s="157"/>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9">
       <c r="A616" s="41" t="s">
         <v>1081</v>
       </c>
@@ -19694,7 +19692,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9">
       <c r="A617" s="22" t="s">
         <v>1084</v>
       </c>
@@ -19717,7 +19715,7 @@
       </c>
       <c r="I617" s="146"/>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9">
       <c r="A618" s="22" t="s">
         <v>1185</v>
       </c>
@@ -19740,7 +19738,7 @@
       </c>
       <c r="I618" s="146"/>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9">
       <c r="A619" s="111" t="s">
         <v>1087</v>
       </c>
@@ -19753,7 +19751,7 @@
       <c r="H619" s="157"/>
       <c r="I619" s="157"/>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9">
       <c r="A620" s="26" t="s">
         <v>1088</v>
       </c>
@@ -19776,7 +19774,7 @@
       </c>
       <c r="I620" s="146"/>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9">
       <c r="A621" s="26" t="s">
         <v>402</v>
       </c>
@@ -19799,7 +19797,7 @@
       </c>
       <c r="I621" s="146"/>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9">
       <c r="A622" s="99" t="s">
         <v>1092</v>
       </c>
@@ -19824,7 +19822,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9">
       <c r="A623" s="99" t="s">
         <v>1477</v>
       </c>
@@ -19847,7 +19845,7 @@
       </c>
       <c r="I623" s="146"/>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9">
       <c r="A624" s="22" t="s">
         <v>1095</v>
       </c>
@@ -19870,7 +19868,7 @@
       </c>
       <c r="I624" s="146"/>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9">
       <c r="A625" s="22" t="s">
         <v>1098</v>
       </c>
@@ -19895,7 +19893,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9">
       <c r="A626" s="111" t="s">
         <v>1101</v>
       </c>
@@ -19908,7 +19906,7 @@
       <c r="H626" s="157"/>
       <c r="I626" s="157"/>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9">
       <c r="A627" s="53" t="s">
         <v>1102</v>
       </c>
@@ -19933,7 +19931,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9">
       <c r="A628" s="53" t="s">
         <v>1105</v>
       </c>
@@ -19958,7 +19956,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9">
       <c r="A629" s="22" t="s">
         <v>1108</v>
       </c>
@@ -19981,7 +19979,7 @@
       </c>
       <c r="I629" s="146"/>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9">
       <c r="A630" s="22" t="s">
         <v>1111</v>
       </c>
@@ -20006,7 +20004,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9">
       <c r="A631" s="53" t="s">
         <v>1114</v>
       </c>
@@ -20031,7 +20029,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9">
       <c r="A632" s="100" t="s">
         <v>1117</v>
       </c>
@@ -20056,7 +20054,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9">
       <c r="A633" s="22" t="s">
         <v>1120</v>
       </c>
@@ -20081,7 +20079,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9">
       <c r="A634" s="22" t="s">
         <v>1123</v>
       </c>
@@ -20104,7 +20102,7 @@
       </c>
       <c r="I634" s="146"/>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9">
       <c r="A635" s="22" t="s">
         <v>1126</v>
       </c>
@@ -20127,7 +20125,7 @@
       </c>
       <c r="I635" s="146"/>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9">
       <c r="A636" s="111" t="s">
         <v>1129</v>
       </c>
@@ -20140,7 +20138,7 @@
       <c r="H636" s="157"/>
       <c r="I636" s="157"/>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9">
       <c r="A637" s="41" t="s">
         <v>1130</v>
       </c>
@@ -20161,7 +20159,7 @@
       <c r="H637" s="146"/>
       <c r="I637" s="146"/>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9">
       <c r="A638" s="22" t="s">
         <v>1133</v>
       </c>
@@ -20184,7 +20182,7 @@
       </c>
       <c r="I638" s="146"/>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9">
       <c r="A639" s="53" t="s">
         <v>1136</v>
       </c>
@@ -20209,7 +20207,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9">
       <c r="A640" s="111" t="s">
         <v>478</v>
       </c>
@@ -20222,7 +20220,7 @@
       <c r="H640" s="157"/>
       <c r="I640" s="157"/>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9">
       <c r="A641" s="22" t="s">
         <v>1138</v>
       </c>
@@ -20247,7 +20245,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9">
       <c r="A642" s="33" t="s">
         <v>1595</v>
       </c>
@@ -20272,7 +20270,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9">
       <c r="A643" s="22" t="s">
         <v>1141</v>
       </c>
@@ -20297,7 +20295,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9">
       <c r="A644" s="22" t="s">
         <v>1144</v>
       </c>
@@ -20320,7 +20318,7 @@
       </c>
       <c r="I644" s="146"/>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9">
       <c r="A645" s="100" t="s">
         <v>1383</v>
       </c>
@@ -20345,7 +20343,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9">
       <c r="A646" s="86" t="s">
         <v>1147</v>
       </c>
@@ -20370,7 +20368,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9">
       <c r="A647" s="52" t="s">
         <v>1150</v>
       </c>
@@ -20393,7 +20391,7 @@
       </c>
       <c r="I647" s="146"/>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9">
       <c r="A648" s="100" t="s">
         <v>1153</v>
       </c>
@@ -20418,7 +20416,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9">
       <c r="A649" s="100" t="s">
         <v>1156</v>
       </c>
@@ -20441,7 +20439,7 @@
       </c>
       <c r="I649" s="146"/>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9">
       <c r="A650" s="33" t="s">
         <v>1559</v>
       </c>
@@ -20466,7 +20464,7 @@
       </c>
       <c r="I650" s="147"/>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9">
       <c r="A651" s="33" t="s">
         <v>1560</v>
       </c>
@@ -20491,7 +20489,7 @@
       </c>
       <c r="I651" s="147"/>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9">
       <c r="A652" s="52" t="s">
         <v>1160</v>
       </c>
@@ -20516,7 +20514,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9">
       <c r="A653" s="52" t="s">
         <v>482</v>
       </c>
@@ -20541,7 +20539,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9">
       <c r="A654" s="111" t="s">
         <v>1163</v>
       </c>
@@ -20554,7 +20552,7 @@
       <c r="H654" s="157"/>
       <c r="I654" s="157"/>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9">
       <c r="A655" s="33" t="s">
         <v>1602</v>
       </c>
@@ -20579,7 +20577,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9">
       <c r="A656" s="52" t="s">
         <v>1164</v>
       </c>
@@ -20604,7 +20602,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9">
       <c r="A657" s="22" t="s">
         <v>1167</v>
       </c>
@@ -20629,7 +20627,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9">
       <c r="A658" s="27" t="s">
         <v>1170</v>
       </c>
@@ -20654,7 +20652,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9">
       <c r="A659" s="111" t="s">
         <v>1173</v>
       </c>
@@ -20667,7 +20665,7 @@
       <c r="H659" s="157"/>
       <c r="I659" s="157"/>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9">
       <c r="A660" s="52" t="s">
         <v>1174</v>
       </c>
@@ -20692,7 +20690,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9">
       <c r="A661" s="111" t="s">
         <v>1176</v>
       </c>
@@ -20705,7 +20703,7 @@
       <c r="H661" s="157"/>
       <c r="I661" s="157"/>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9">
       <c r="A662" s="52" t="s">
         <v>1177</v>
       </c>
@@ -20730,7 +20728,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9">
       <c r="A663" s="189" t="s">
         <v>1605</v>
       </c>
@@ -20755,7 +20753,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9">
       <c r="A664" s="111" t="s">
         <v>1192</v>
       </c>
@@ -20768,7 +20766,7 @@
       <c r="H664" s="157"/>
       <c r="I664" s="157"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9">
       <c r="A665" s="3" t="s">
         <v>1193</v>
       </c>
@@ -20793,7 +20791,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9">
       <c r="A666" s="190" t="s">
         <v>1617</v>
       </c>
@@ -20818,7 +20816,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9">
       <c r="A667" s="74" t="s">
         <v>514</v>
       </c>
@@ -20831,7 +20829,7 @@
       <c r="H667" s="158"/>
       <c r="I667" s="158"/>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9">
       <c r="A668" s="111" t="s">
         <v>1196</v>
       </c>
@@ -20844,7 +20842,7 @@
       <c r="H668" s="157"/>
       <c r="I668" s="157"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9">
       <c r="A669" s="22" t="s">
         <v>1197</v>
       </c>
@@ -20867,7 +20865,7 @@
       </c>
       <c r="I669" s="146"/>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9">
       <c r="A670" s="22" t="s">
         <v>1366</v>
       </c>
@@ -20890,7 +20888,7 @@
       </c>
       <c r="I670" s="146"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9">
       <c r="A671" s="22" t="s">
         <v>1200</v>
       </c>
@@ -20915,7 +20913,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9">
       <c r="A672" s="22" t="s">
         <v>1203</v>
       </c>
@@ -20940,7 +20938,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9">
       <c r="A673" s="22" t="s">
         <v>1206</v>
       </c>
@@ -20965,7 +20963,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9">
       <c r="A674" s="22" t="s">
         <v>1209</v>
       </c>
@@ -20990,7 +20988,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9">
       <c r="A675" s="22" t="s">
         <v>1452</v>
       </c>
@@ -21015,7 +21013,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9">
       <c r="A676" s="111" t="s">
         <v>1212</v>
       </c>
@@ -21028,7 +21026,7 @@
       <c r="H676" s="157"/>
       <c r="I676" s="157"/>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9">
       <c r="A677" s="22" t="s">
         <v>1213</v>
       </c>
@@ -21051,7 +21049,7 @@
       </c>
       <c r="I677" s="146"/>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9">
       <c r="A678" s="111" t="s">
         <v>1216</v>
       </c>
@@ -21064,7 +21062,7 @@
       <c r="H678" s="157"/>
       <c r="I678" s="157"/>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9">
       <c r="A679" s="22" t="s">
         <v>1217</v>
       </c>
@@ -21089,7 +21087,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9">
       <c r="A680" s="111" t="s">
         <v>521</v>
       </c>
@@ -21102,7 +21100,7 @@
       <c r="H680" s="157"/>
       <c r="I680" s="157"/>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9">
       <c r="A681" s="41" t="s">
         <v>1218</v>
       </c>
@@ -21127,7 +21125,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9">
       <c r="A682" s="22" t="s">
         <v>1221</v>
       </c>
@@ -21150,7 +21148,7 @@
       </c>
       <c r="I682" s="146"/>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9">
       <c r="A683" s="41" t="s">
         <v>1223</v>
       </c>
@@ -21175,7 +21173,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9">
       <c r="A684" s="41" t="s">
         <v>1470</v>
       </c>
@@ -21198,7 +21196,7 @@
       </c>
       <c r="I684" s="146"/>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9">
       <c r="A685" s="111" t="s">
         <v>1226</v>
       </c>
@@ -21211,7 +21209,7 @@
       <c r="H685" s="157"/>
       <c r="I685" s="157"/>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9">
       <c r="A686" s="111" t="s">
         <v>527</v>
       </c>
@@ -21224,7 +21222,7 @@
       <c r="H686" s="157"/>
       <c r="I686" s="157"/>
     </row>
-    <row r="687" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:9">
       <c r="A687" s="22" t="s">
         <v>1227</v>
       </c>
@@ -21247,7 +21245,7 @@
       </c>
       <c r="I687" s="146"/>
     </row>
-    <row r="688" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:9">
       <c r="A688" s="22" t="s">
         <v>1442</v>
       </c>
@@ -21272,7 +21270,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="689" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:9">
       <c r="A689" s="22" t="s">
         <v>530</v>
       </c>
@@ -21297,7 +21295,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="690" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:9">
       <c r="A690" s="22" t="s">
         <v>1230</v>
       </c>
@@ -21322,7 +21320,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="691" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:9">
       <c r="A691" s="22" t="s">
         <v>528</v>
       </c>
@@ -21345,7 +21343,7 @@
       </c>
       <c r="I691" s="146"/>
     </row>
-    <row r="692" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:9">
       <c r="A692" s="22" t="s">
         <v>536</v>
       </c>
@@ -21368,7 +21366,7 @@
       </c>
       <c r="I692" s="146"/>
     </row>
-    <row r="693" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:9">
       <c r="A693" s="22" t="s">
         <v>1234</v>
       </c>
@@ -21391,7 +21389,7 @@
       </c>
       <c r="I693" s="146"/>
     </row>
-    <row r="694" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:9">
       <c r="A694" s="22" t="s">
         <v>1388</v>
       </c>
@@ -21416,7 +21414,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="695" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:9">
       <c r="A695" s="22" t="s">
         <v>1237</v>
       </c>
@@ -21441,7 +21439,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="696" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:9">
       <c r="A696" s="111" t="s">
         <v>1240</v>
       </c>
@@ -21454,7 +21452,7 @@
       <c r="H696" s="157"/>
       <c r="I696" s="157"/>
     </row>
-    <row r="697" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:9">
       <c r="A697" s="22" t="s">
         <v>1241</v>
       </c>
@@ -21479,7 +21477,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="698" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:9">
       <c r="A698" s="41" t="s">
         <v>1244</v>
       </c>
@@ -21502,7 +21500,7 @@
       </c>
       <c r="I698" s="146"/>
     </row>
-    <row r="699" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:9">
       <c r="A699" s="22" t="s">
         <v>1246</v>
       </c>
@@ -21527,7 +21525,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="700" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:9">
       <c r="A700" s="22" t="s">
         <v>1249</v>
       </c>
@@ -21552,7 +21550,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="701" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:9">
       <c r="A701" s="22" t="s">
         <v>1253</v>
       </c>
@@ -21575,7 +21573,7 @@
       </c>
       <c r="I701" s="146"/>
     </row>
-    <row r="702" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:9">
       <c r="A702" s="22" t="s">
         <v>1255</v>
       </c>
@@ -21598,7 +21596,7 @@
       </c>
       <c r="I702" s="146"/>
     </row>
-    <row r="703" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:9">
       <c r="A703" s="22" t="s">
         <v>1258</v>
       </c>
@@ -21619,7 +21617,7 @@
       <c r="H703" s="146"/>
       <c r="I703" s="146"/>
     </row>
-    <row r="704" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:9">
       <c r="A704" s="22" t="s">
         <v>1253</v>
       </c>
@@ -21642,7 +21640,7 @@
       </c>
       <c r="I704" s="146"/>
     </row>
-    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:9">
       <c r="A705" s="53" t="s">
         <v>1261</v>
       </c>
@@ -21667,7 +21665,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:9">
       <c r="A706" s="53" t="s">
         <v>1263</v>
       </c>
@@ -21692,7 +21690,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:9">
       <c r="A707" s="111" t="s">
         <v>1266</v>
       </c>
@@ -21705,7 +21703,7 @@
       <c r="H707" s="157"/>
       <c r="I707" s="157"/>
     </row>
-    <row r="708" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:9">
       <c r="A708" s="45" t="s">
         <v>1267</v>
       </c>
@@ -21728,7 +21726,7 @@
       </c>
       <c r="I708" s="146"/>
     </row>
-    <row r="709" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:9">
       <c r="A709" s="22" t="s">
         <v>1270</v>
       </c>
@@ -21751,7 +21749,7 @@
       </c>
       <c r="I709" s="146"/>
     </row>
-    <row r="710" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:9">
       <c r="A710" s="22" t="s">
         <v>1272</v>
       </c>
@@ -21776,7 +21774,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="711" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:9">
       <c r="A711" s="22" t="s">
         <v>1275</v>
       </c>
@@ -21799,7 +21797,7 @@
       </c>
       <c r="I711" s="146"/>
     </row>
-    <row r="712" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:9">
       <c r="A712" s="22" t="s">
         <v>1278</v>
       </c>
@@ -21824,7 +21822,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="713" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:9">
       <c r="A713" s="33" t="s">
         <v>1665</v>
       </c>
@@ -21851,7 +21849,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="714" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:9">
       <c r="A714" s="74" t="s">
         <v>1281</v>
       </c>
@@ -21864,7 +21862,7 @@
       <c r="H714" s="158"/>
       <c r="I714" s="158"/>
     </row>
-    <row r="715" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:9">
       <c r="A715" s="94" t="s">
         <v>1282</v>
       </c>
@@ -21877,7 +21875,7 @@
       <c r="H715" s="157"/>
       <c r="I715" s="157"/>
     </row>
-    <row r="716" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:9">
       <c r="A716" s="67" t="s">
         <v>1283</v>
       </c>
@@ -21890,7 +21888,7 @@
       <c r="H716" s="156"/>
       <c r="I716" s="156"/>
     </row>
-    <row r="717" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:9">
       <c r="A717" s="22" t="s">
         <v>1284</v>
       </c>
@@ -21915,7 +21913,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="718" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:9">
       <c r="A718" s="22" t="s">
         <v>1287</v>
       </c>
@@ -21940,7 +21938,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="719" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:9">
       <c r="A719" s="22" t="s">
         <v>1290</v>
       </c>
@@ -21965,7 +21963,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="720" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:9">
       <c r="A720" s="33" t="s">
         <v>1593</v>
       </c>
@@ -21990,7 +21988,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="721" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9">
       <c r="A721" s="27" t="s">
         <v>1292</v>
       </c>
@@ -22015,7 +22013,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="722" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9">
       <c r="A722" s="67" t="s">
         <v>1295</v>
       </c>
@@ -22028,7 +22026,7 @@
       <c r="H722" s="156"/>
       <c r="I722" s="156"/>
     </row>
-    <row r="723" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9">
       <c r="A723" s="22" t="s">
         <v>563</v>
       </c>
@@ -22051,7 +22049,7 @@
       </c>
       <c r="I723" s="146"/>
     </row>
-    <row r="724" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9">
       <c r="A724" s="22" t="s">
         <v>1296</v>
       </c>
@@ -22076,7 +22074,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="725" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9">
       <c r="A725" s="67" t="s">
         <v>1299</v>
       </c>
@@ -22089,7 +22087,7 @@
       <c r="H725" s="156"/>
       <c r="I725" s="156"/>
     </row>
-    <row r="726" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9">
       <c r="A726" s="22" t="s">
         <v>1300</v>
       </c>
@@ -22114,7 +22112,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="727" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9">
       <c r="A727" s="22" t="s">
         <v>1303</v>
       </c>
@@ -22137,7 +22135,7 @@
       </c>
       <c r="I727" s="146"/>
     </row>
-    <row r="728" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9">
       <c r="A728" s="67" t="s">
         <v>1540</v>
       </c>
@@ -22150,7 +22148,7 @@
       <c r="H728" s="156"/>
       <c r="I728" s="156"/>
     </row>
-    <row r="729" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9">
       <c r="A729" s="22" t="s">
         <v>1532</v>
       </c>
@@ -22173,7 +22171,7 @@
       </c>
       <c r="I729" s="146"/>
     </row>
-    <row r="730" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9">
       <c r="A730" s="33" t="s">
         <v>1639</v>
       </c>
@@ -22198,7 +22196,7 @@
       </c>
       <c r="I730" s="147"/>
     </row>
-    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:9">
       <c r="A731" s="67" t="s">
         <v>1306</v>
       </c>
@@ -22211,7 +22209,7 @@
       <c r="H731" s="156"/>
       <c r="I731" s="156"/>
     </row>
-    <row r="732" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:9">
       <c r="A732" s="22" t="s">
         <v>1307</v>
       </c>
@@ -22236,7 +22234,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="733" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9">
       <c r="A733" s="111" t="s">
         <v>1077</v>
       </c>
@@ -22249,7 +22247,7 @@
       <c r="H733" s="157"/>
       <c r="I733" s="157"/>
     </row>
-    <row r="734" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9">
       <c r="A734" s="22" t="s">
         <v>1078</v>
       </c>
@@ -22274,7 +22272,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="735" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9">
       <c r="A735" s="94" t="s">
         <v>1056</v>
       </c>
@@ -22287,7 +22285,7 @@
       <c r="H735" s="162"/>
       <c r="I735" s="162"/>
     </row>
-    <row r="736" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9">
       <c r="A736" s="27" t="s">
         <v>1058</v>
       </c>
@@ -22312,7 +22310,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="737" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:9">
       <c r="A737" s="41" t="s">
         <v>1060</v>
       </c>
@@ -22337,7 +22335,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="738" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:9">
       <c r="A738" s="27" t="s">
         <v>1063</v>
       </c>
@@ -22362,7 +22360,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="739" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:9">
       <c r="A739" s="27" t="s">
         <v>1065</v>
       </c>
@@ -22387,7 +22385,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="740" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:9">
       <c r="A740" s="52" t="s">
         <v>1067</v>
       </c>
@@ -22412,7 +22410,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="741" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:9">
       <c r="A741" s="52" t="s">
         <v>1069</v>
       </c>
@@ -22435,7 +22433,7 @@
       </c>
       <c r="I741" s="146"/>
     </row>
-    <row r="742" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:9">
       <c r="A742" s="94" t="s">
         <v>221</v>
       </c>
@@ -22448,7 +22446,7 @@
       <c r="H742" s="162"/>
       <c r="I742" s="162"/>
     </row>
-    <row r="743" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:9">
       <c r="A743" s="74" t="s">
         <v>766</v>
       </c>
@@ -22461,7 +22459,7 @@
       <c r="H743" s="158"/>
       <c r="I743" s="158"/>
     </row>
-    <row r="744" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:9">
       <c r="A744" s="41" t="s">
         <v>1309</v>
       </c>
@@ -22486,7 +22484,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="745" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:9">
       <c r="A745" s="52" t="s">
         <v>1312</v>
       </c>
@@ -22511,7 +22509,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="746" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:9">
       <c r="A746" s="52" t="s">
         <v>1314</v>
       </c>
@@ -22536,7 +22534,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:9">
       <c r="A747" s="100" t="s">
         <v>1317</v>
       </c>
@@ -22561,7 +22559,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:9">
       <c r="A748" s="22" t="s">
         <v>1319</v>
       </c>
@@ -22586,7 +22584,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="749" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:9">
       <c r="A749" s="22" t="s">
         <v>1322</v>
       </c>
@@ -22611,7 +22609,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="750" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:9">
       <c r="A750" s="22" t="s">
         <v>1325</v>
       </c>
@@ -22636,7 +22634,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:9">
       <c r="A751" s="22" t="s">
         <v>1493</v>
       </c>
@@ -22668,4 +22666,22 @@
   <pageMargins left="0.7" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>